--- a/Codes/ModeloAlocacao/dados_experimentos.xlsx
+++ b/Codes/ModeloAlocacao/dados_experimentos.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="macmini_leves" sheetId="2" r:id="rId1"/>
     <sheet name="macbook(ignorar)" sheetId="1" r:id="rId2"/>
+    <sheet name="categorias" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="resultados_1" localSheetId="2">categorias!$A$3:$F$102</definedName>
     <definedName name="resultados_1" localSheetId="1">'macbook(ignorar)'!$H$1:$M$98</definedName>
     <definedName name="resultados_1" localSheetId="0">macmini_leves!$A$1:$F$100</definedName>
     <definedName name="resultados_buffers_leves" localSheetId="1">'macbook(ignorar)'!$A$1:$F$98</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +29,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="resultados_1.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:victormedeiros:Dropbox:trabalho:ufrpe:orientacoes:tcc:workspace:ModeloAlocacao:resultados_1.txt" decimal="," thousands="." delimiter=":">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:victormedeiros:Dropbox:trabalho:ufrpe:orientacoes:tcc:workspace:ModeloAlocacao:resultados_1.txt" decimal="," thousands="." delimiter=":">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -37,8 +39,19 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="resultados_buffers_leves.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:victormedeiros:Dropbox:trabalho:ufrpe:orientacoes:tcc:workspace:ModeloAlocacao:resultados_buffers_leves.txt" decimal="," thousands="." delimiter=":">
+  <connection id="2" name="resultados_1.txt2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:victormedeiros:Dropbox:trabalho:ufrpe:orientacoes:tcc:workspace:ModeloAlocacao:resultados_1.txt" decimal="," thousands="." delimiter=":">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="resultados_buffers_leves.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:victormedeiros:Dropbox:trabalho:ufrpe:orientacoes:tcc:workspace:ModeloAlocacao:resultados_buffers_leves.txt" decimal="," thousands="." delimiter=":">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -53,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="6">
   <si>
     <t>f</t>
   </si>
@@ -63,12 +76,21 @@
   <si>
     <t>d</t>
   </si>
+  <si>
+    <t>Facil</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Difícil</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,12 +151,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink seguido" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink seguido" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink seguido" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -151,7 +173,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="resultados_buffers_leves" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="resultados_buffers_leves" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="resultados_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,20 +501,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2504,26 +2530,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -6258,4 +6284,1933 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="15.625" customWidth="1"/>
+    <col min="19" max="19" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>68.17</v>
+      </c>
+      <c r="D2">
+        <v>400</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>34.69</v>
+      </c>
+      <c r="K2">
+        <v>400</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1E-3</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>18.87</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>70.52</v>
+      </c>
+      <c r="D3">
+        <v>400</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>47.63</v>
+      </c>
+      <c r="K3">
+        <v>225.99</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>15.56</v>
+      </c>
+      <c r="R3">
+        <v>400</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>87.88</v>
+      </c>
+      <c r="D4">
+        <v>400</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>34.53</v>
+      </c>
+      <c r="K4">
+        <v>273.07</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>28.95</v>
+      </c>
+      <c r="R4">
+        <v>225.02</v>
+      </c>
+      <c r="S4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>97.08</v>
+      </c>
+      <c r="D5">
+        <v>400</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>20.7</v>
+      </c>
+      <c r="K5">
+        <v>354.25</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="O5">
+        <v>9</v>
+      </c>
+      <c r="P5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>28.87</v>
+      </c>
+      <c r="R5">
+        <v>179.55</v>
+      </c>
+      <c r="S5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>337.43200000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>66.56</v>
+      </c>
+      <c r="D6">
+        <v>400</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>80.959999999999994</v>
+      </c>
+      <c r="K6">
+        <v>364.09</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.4820000000000002</v>
+      </c>
+      <c r="O6">
+        <v>14</v>
+      </c>
+      <c r="P6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>13.72</v>
+      </c>
+      <c r="R6">
+        <v>400</v>
+      </c>
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>92.82</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>60.78</v>
+      </c>
+      <c r="K7">
+        <v>400</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.03</v>
+      </c>
+      <c r="O7">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>44.78</v>
+      </c>
+      <c r="R7">
+        <v>273.07</v>
+      </c>
+      <c r="S7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>72564.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>66.16</v>
+      </c>
+      <c r="D8">
+        <v>400</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2E-3</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>29.1</v>
+      </c>
+      <c r="K8">
+        <v>400</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O8">
+        <v>18</v>
+      </c>
+      <c r="P8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>13.1</v>
+      </c>
+      <c r="R8">
+        <v>159.84</v>
+      </c>
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>67.03</v>
+      </c>
+      <c r="D9">
+        <v>400</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>51.74</v>
+      </c>
+      <c r="K9">
+        <v>400</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2E-3</v>
+      </c>
+      <c r="O9">
+        <v>24</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>13.05</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>86.43</v>
+      </c>
+      <c r="D10">
+        <v>400</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1E-3</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>44.11</v>
+      </c>
+      <c r="K10">
+        <v>400</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2E-3</v>
+      </c>
+      <c r="O10">
+        <v>32</v>
+      </c>
+      <c r="P10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>11.43</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>60.51</v>
+      </c>
+      <c r="D11">
+        <v>400</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>46.91</v>
+      </c>
+      <c r="K11">
+        <v>400</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="O11">
+        <v>41</v>
+      </c>
+      <c r="P11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>48.61</v>
+      </c>
+      <c r="R11">
+        <v>272.36</v>
+      </c>
+      <c r="S11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>338.43700000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>82.37</v>
+      </c>
+      <c r="D12">
+        <v>400</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2E-3</v>
+      </c>
+      <c r="H12">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>48.56</v>
+      </c>
+      <c r="K12">
+        <v>400</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O12">
+        <v>46</v>
+      </c>
+      <c r="P12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>19.53</v>
+      </c>
+      <c r="R12">
+        <v>400</v>
+      </c>
+      <c r="S12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>70.06</v>
+      </c>
+      <c r="D13">
+        <v>400</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2E-3</v>
+      </c>
+      <c r="H13">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>60.01</v>
+      </c>
+      <c r="K13">
+        <v>297.89</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.7030000000000001</v>
+      </c>
+      <c r="O13">
+        <v>48</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>18.61</v>
+      </c>
+      <c r="R13">
+        <v>204.8</v>
+      </c>
+      <c r="S13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>62.42</v>
+      </c>
+      <c r="D14">
+        <v>400</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>40.229999999999997</v>
+      </c>
+      <c r="K14">
+        <v>327.68</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="O14">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>63.95</v>
+      </c>
+      <c r="R14">
+        <v>364.09</v>
+      </c>
+      <c r="S14" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1995.2739999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>79.3</v>
+      </c>
+      <c r="D15">
+        <v>400</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H15">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>21.18</v>
+      </c>
+      <c r="K15">
+        <v>400</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O15">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>11.68</v>
+      </c>
+      <c r="R15">
+        <v>242.73</v>
+      </c>
+      <c r="S15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>83.44</v>
+      </c>
+      <c r="D16">
+        <v>400</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H16">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>54.28</v>
+      </c>
+      <c r="K16">
+        <v>204.8</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>16054.233</v>
+      </c>
+      <c r="O16">
+        <v>57</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>19.75</v>
+      </c>
+      <c r="R16">
+        <v>273.07</v>
+      </c>
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>95.48</v>
+      </c>
+      <c r="D17">
+        <v>400</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>62.15</v>
+      </c>
+      <c r="K17">
+        <v>354.25</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.885999999999999</v>
+      </c>
+      <c r="O17">
+        <v>58</v>
+      </c>
+      <c r="P17" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>18.82</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>74.41</v>
+      </c>
+      <c r="D18">
+        <v>364.09</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H18">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="K18">
+        <v>297.89</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="O18">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>19.34</v>
+      </c>
+      <c r="R18">
+        <v>400</v>
+      </c>
+      <c r="S18" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>91.99</v>
+      </c>
+      <c r="D19">
+        <v>400</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2E-3</v>
+      </c>
+      <c r="H19">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="K19">
+        <v>204.8</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="O19">
+        <v>62</v>
+      </c>
+      <c r="P19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>48.14</v>
+      </c>
+      <c r="R19">
+        <v>204.8</v>
+      </c>
+      <c r="S19" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>3.2639999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="D20">
+        <v>400</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2E-3</v>
+      </c>
+      <c r="H20">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>37.85</v>
+      </c>
+      <c r="K20">
+        <v>400</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O20">
+        <v>79</v>
+      </c>
+      <c r="P20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>16.5</v>
+      </c>
+      <c r="R20">
+        <v>291.27</v>
+      </c>
+      <c r="S20" t="b">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>160.703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>77.55</v>
+      </c>
+      <c r="D21">
+        <v>400</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H21">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>33.89</v>
+      </c>
+      <c r="K21">
+        <v>311.16000000000003</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="O21">
+        <v>80</v>
+      </c>
+      <c r="P21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>11.71</v>
+      </c>
+      <c r="R21">
+        <v>229.95</v>
+      </c>
+      <c r="S21" t="b">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>85.08</v>
+      </c>
+      <c r="D22">
+        <v>400</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>52.39</v>
+      </c>
+      <c r="K22">
+        <v>312.08</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="O22">
+        <v>85</v>
+      </c>
+      <c r="P22" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>18.78</v>
+      </c>
+      <c r="R22">
+        <v>400</v>
+      </c>
+      <c r="S22" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>75.95</v>
+      </c>
+      <c r="D23">
+        <v>400</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H23">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>46.23</v>
+      </c>
+      <c r="K23">
+        <v>400</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2E-3</v>
+      </c>
+      <c r="O23">
+        <v>86</v>
+      </c>
+      <c r="P23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>38.56</v>
+      </c>
+      <c r="R23">
+        <v>182.04</v>
+      </c>
+      <c r="S23" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>80.040000000000006</v>
+      </c>
+      <c r="D24">
+        <v>400</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H24">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>24.79</v>
+      </c>
+      <c r="K24">
+        <v>311.16000000000003</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O24">
+        <v>96</v>
+      </c>
+      <c r="P24" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>4.5</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24" t="b">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>2.0680000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>82.65</v>
+      </c>
+      <c r="D25">
+        <v>400</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>27.93</v>
+      </c>
+      <c r="K25">
+        <v>400</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O25">
+        <v>99</v>
+      </c>
+      <c r="P25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>48.12</v>
+      </c>
+      <c r="R25">
+        <v>273.07</v>
+      </c>
+      <c r="S25" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>2.9249999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>94.12</v>
+      </c>
+      <c r="D26">
+        <v>400</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>56.92</v>
+      </c>
+      <c r="K26">
+        <v>400</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>66.05</v>
+      </c>
+      <c r="D27">
+        <v>400</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H27">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>61.25</v>
+      </c>
+      <c r="K27">
+        <v>291.27</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1131.835</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>71.680000000000007</v>
+      </c>
+      <c r="D28">
+        <v>400</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H28">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>48.47</v>
+      </c>
+      <c r="K28">
+        <v>400</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="H29">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>41.02</v>
+      </c>
+      <c r="K29">
+        <v>400</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="H30">
+        <v>50</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>69.05</v>
+      </c>
+      <c r="K30">
+        <v>267.49</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="H31">
+        <v>51</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>43.92</v>
+      </c>
+      <c r="K31">
+        <v>400</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="H32">
+        <v>54</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>37.74</v>
+      </c>
+      <c r="K32">
+        <v>91.02</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="8:13">
+      <c r="H33">
+        <v>55</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>66.23</v>
+      </c>
+      <c r="K33">
+        <v>267.49</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2065.549</v>
+      </c>
+    </row>
+    <row r="34" spans="8:13">
+      <c r="H34">
+        <v>65</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>31.25</v>
+      </c>
+      <c r="K34">
+        <v>400</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="8:13">
+      <c r="H35">
+        <v>66</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>42.68</v>
+      </c>
+      <c r="K35">
+        <v>400</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:13">
+      <c r="H36">
+        <v>67</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>47.82</v>
+      </c>
+      <c r="K36">
+        <v>400</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="8:13">
+      <c r="H37">
+        <v>68</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>68.540000000000006</v>
+      </c>
+      <c r="K37">
+        <v>400</v>
+      </c>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="8:13">
+      <c r="H38">
+        <v>69</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>32.07</v>
+      </c>
+      <c r="K38">
+        <v>400</v>
+      </c>
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="8:13">
+      <c r="H39">
+        <v>72</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>54.55</v>
+      </c>
+      <c r="K39">
+        <v>148.94999999999999</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="8:13">
+      <c r="H40">
+        <v>73</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>29.28</v>
+      </c>
+      <c r="K40">
+        <v>400</v>
+      </c>
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="8:13">
+      <c r="H41">
+        <v>74</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>37.82</v>
+      </c>
+      <c r="K41">
+        <v>310.24</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="8:13">
+      <c r="H42">
+        <v>75</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>24.94</v>
+      </c>
+      <c r="K42">
+        <v>400</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="8:13">
+      <c r="H43">
+        <v>77</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>35.14</v>
+      </c>
+      <c r="K43">
+        <v>400</v>
+      </c>
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="8:13">
+      <c r="H44">
+        <v>82</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>55.38</v>
+      </c>
+      <c r="K44">
+        <v>400</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="8:13">
+      <c r="H45">
+        <v>83</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>60.61</v>
+      </c>
+      <c r="K45">
+        <v>272.70999999999998</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="8:13">
+      <c r="H46">
+        <v>87</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>52.1</v>
+      </c>
+      <c r="K46">
+        <v>364.09</v>
+      </c>
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="47" spans="8:13">
+      <c r="H47">
+        <v>90</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>57.32</v>
+      </c>
+      <c r="K47">
+        <v>400</v>
+      </c>
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="8:13">
+      <c r="H48">
+        <v>91</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>42.15</v>
+      </c>
+      <c r="K48">
+        <v>354.25</v>
+      </c>
+      <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>12.581</v>
+      </c>
+    </row>
+    <row r="49" spans="8:13">
+      <c r="H49">
+        <v>94</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>39.99</v>
+      </c>
+      <c r="K49">
+        <v>327.68</v>
+      </c>
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1.4219999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="8:13">
+      <c r="H50">
+        <v>98</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>66.86</v>
+      </c>
+      <c r="K50">
+        <v>252.06</v>
+      </c>
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Codes/ModeloAlocacao/dados_experimentos.xlsx
+++ b/Codes/ModeloAlocacao/dados_experimentos.xlsx
@@ -10,9 +10,10 @@
     <sheet name="macmini_leves" sheetId="2" r:id="rId1"/>
     <sheet name="macbook(ignorar)" sheetId="1" r:id="rId2"/>
     <sheet name="categorias" sheetId="3" r:id="rId3"/>
+    <sheet name="ResultadosModeloII" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="resultados_1" localSheetId="2">categorias!$A$3:$F$102</definedName>
+    <definedName name="resultados_1" localSheetId="2">categorias!$A$5:$F$102</definedName>
     <definedName name="resultados_1" localSheetId="1">'macbook(ignorar)'!$H$1:$M$98</definedName>
     <definedName name="resultados_1" localSheetId="0">macmini_leves!$A$1:$F$100</definedName>
     <definedName name="resultados_buffers_leves" localSheetId="1">'macbook(ignorar)'!$A$1:$F$98</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="15">
   <si>
     <t>f</t>
   </si>
@@ -77,20 +78,47 @@
     <t>d</t>
   </si>
   <si>
-    <t>Facil</t>
+    <t>true</t>
   </si>
   <si>
-    <t>Medio</t>
+    <t>false</t>
   </si>
   <si>
-    <t>Difícil</t>
+    <t xml:space="preserve">     Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Categoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Desperdício</t>
+  </si>
+  <si>
+    <t>qtd de memorias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Tempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Alocou</t>
+  </si>
+  <si>
+    <t>Fáceis</t>
+  </si>
+  <si>
+    <t>Medios</t>
+  </si>
+  <si>
+    <t>Difíceis</t>
+  </si>
+  <si>
+    <t>Frequencia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,6 +144,23 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,8 +192,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
@@ -6288,151 +6335,105 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="12" max="12" width="15.625" customWidth="1"/>
     <col min="19" max="19" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1">
+        <v>49</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>68.17</v>
-      </c>
-      <c r="D2">
-        <v>400</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>34.69</v>
-      </c>
-      <c r="K2">
-        <v>400</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1E-3</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>18.87</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>70.52</v>
-      </c>
-      <c r="D3">
-        <v>400</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>47.63</v>
-      </c>
-      <c r="K3">
-        <v>225.99</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>15.56</v>
-      </c>
-      <c r="R3">
-        <v>400</v>
-      </c>
-      <c r="S3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>2E-3</v>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>87.88</v>
+        <v>68.17</v>
       </c>
       <c r="D4">
         <v>400</v>
@@ -6441,54 +6442,54 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>7.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>34.53</v>
+        <v>34.69</v>
       </c>
       <c r="K4">
-        <v>273.07</v>
+        <v>400</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.7000000000000003E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="O4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P4" t="s">
         <v>2</v>
       </c>
       <c r="Q4">
-        <v>28.95</v>
+        <v>18.87</v>
       </c>
       <c r="R4">
-        <v>225.02</v>
+        <v>0</v>
       </c>
       <c r="S4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>9.0999999999999998E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>97.08</v>
+        <v>70.52</v>
       </c>
       <c r="D5">
         <v>400</v>
@@ -6497,54 +6498,54 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>8.9999999999999993E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>20.7</v>
+        <v>47.63</v>
       </c>
       <c r="K5">
-        <v>354.25</v>
+        <v>225.99</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.6999999999999998E-2</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="O5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P5" t="s">
         <v>2</v>
       </c>
       <c r="Q5">
-        <v>28.87</v>
+        <v>15.56</v>
       </c>
       <c r="R5">
-        <v>179.55</v>
+        <v>400</v>
       </c>
       <c r="S5" t="b">
         <v>1</v>
       </c>
       <c r="T5">
-        <v>337.43200000000002</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>66.56</v>
+        <v>87.88</v>
       </c>
       <c r="D6">
         <v>400</v>
@@ -6553,54 +6554,54 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>5.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I6" t="s">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>80.959999999999994</v>
+        <v>34.53</v>
       </c>
       <c r="K6">
-        <v>364.09</v>
+        <v>273.07</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.4820000000000002</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="O6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="P6" t="s">
         <v>2</v>
       </c>
       <c r="Q6">
-        <v>13.72</v>
+        <v>28.95</v>
       </c>
       <c r="R6">
-        <v>400</v>
+        <v>225.02</v>
       </c>
       <c r="S6" t="b">
         <v>1</v>
       </c>
       <c r="T6">
-        <v>0.06</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>92.82</v>
+        <v>97.08</v>
       </c>
       <c r="D7">
         <v>400</v>
@@ -6609,54 +6610,54 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>5.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I7" t="s">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>60.78</v>
+        <v>20.7</v>
       </c>
       <c r="K7">
-        <v>400</v>
+        <v>354.25</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.03</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="O7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="P7" t="s">
         <v>2</v>
       </c>
       <c r="Q7">
-        <v>44.78</v>
+        <v>28.87</v>
       </c>
       <c r="R7">
-        <v>273.07</v>
+        <v>179.55</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
       </c>
       <c r="T7">
-        <v>72564.5</v>
+        <v>337.43200000000002</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>66.16</v>
+        <v>66.56</v>
       </c>
       <c r="D8">
         <v>400</v>
@@ -6665,54 +6666,54 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>29.1</v>
+        <v>80.959999999999994</v>
       </c>
       <c r="K8">
-        <v>400</v>
+        <v>364.09</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.5999999999999999E-2</v>
+        <v>3.4820000000000002</v>
       </c>
       <c r="O8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P8" t="s">
         <v>2</v>
       </c>
       <c r="Q8">
-        <v>13.1</v>
+        <v>13.72</v>
       </c>
       <c r="R8">
-        <v>159.84</v>
+        <v>400</v>
       </c>
       <c r="S8" t="b">
         <v>1</v>
       </c>
       <c r="T8">
-        <v>0.63700000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>67.03</v>
+        <v>92.82</v>
       </c>
       <c r="D9">
         <v>400</v>
@@ -6721,16 +6722,16 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>51.74</v>
+        <v>60.78</v>
       </c>
       <c r="K9">
         <v>400</v>
@@ -6739,36 +6740,36 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2E-3</v>
+        <v>0.03</v>
       </c>
       <c r="O9">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P9" t="s">
         <v>2</v>
       </c>
       <c r="Q9">
-        <v>13.05</v>
+        <v>44.78</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>273.07</v>
       </c>
       <c r="S9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>1.7000000000000001E-2</v>
+        <v>72564.5</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>86.43</v>
+        <v>66.16</v>
       </c>
       <c r="D10">
         <v>400</v>
@@ -6777,16 +6778,16 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>44.11</v>
+        <v>29.1</v>
       </c>
       <c r="K10">
         <v>400</v>
@@ -6795,36 +6796,36 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2E-3</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="O10">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="P10" t="s">
         <v>2</v>
       </c>
       <c r="Q10">
-        <v>11.43</v>
+        <v>13.1</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>159.84</v>
       </c>
       <c r="S10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>8.9999999999999993E-3</v>
+        <v>0.63700000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>60.51</v>
+        <v>67.03</v>
       </c>
       <c r="D11">
         <v>400</v>
@@ -6833,16 +6834,16 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>6.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>46.91</v>
+        <v>51.74</v>
       </c>
       <c r="K11">
         <v>400</v>
@@ -6851,36 +6852,36 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.2999999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="O11">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P11" t="s">
         <v>2</v>
       </c>
       <c r="Q11">
-        <v>48.61</v>
+        <v>13.05</v>
       </c>
       <c r="R11">
-        <v>272.36</v>
+        <v>0</v>
       </c>
       <c r="S11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>338.43700000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>82.37</v>
+        <v>86.43</v>
       </c>
       <c r="D12">
         <v>400</v>
@@ -6889,54 +6890,54 @@
         <v>1</v>
       </c>
       <c r="F12">
+        <v>1E-3</v>
+      </c>
+      <c r="H12">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>44.11</v>
+      </c>
+      <c r="K12">
+        <v>400</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>2E-3</v>
       </c>
-      <c r="H12">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>48.56</v>
-      </c>
-      <c r="K12">
-        <v>400</v>
-      </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>8.0000000000000002E-3</v>
-      </c>
       <c r="O12">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="P12" t="s">
         <v>2</v>
       </c>
       <c r="Q12">
-        <v>19.53</v>
+        <v>11.43</v>
       </c>
       <c r="R12">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1.4E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>70.06</v>
+        <v>60.51</v>
       </c>
       <c r="D13">
         <v>400</v>
@@ -6945,54 +6946,54 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>2E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>60.01</v>
+        <v>46.91</v>
       </c>
       <c r="K13">
-        <v>297.89</v>
+        <v>400</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.7030000000000001</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="O13">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="P13" t="s">
         <v>2</v>
       </c>
       <c r="Q13">
-        <v>18.61</v>
+        <v>48.61</v>
       </c>
       <c r="R13">
-        <v>204.8</v>
+        <v>272.36</v>
       </c>
       <c r="S13" t="b">
         <v>1</v>
       </c>
       <c r="T13">
-        <v>0.56799999999999995</v>
+        <v>338.43700000000001</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>62.42</v>
+        <v>82.37</v>
       </c>
       <c r="D14">
         <v>400</v>
@@ -7001,54 +7002,54 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>7.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H14">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>40.229999999999997</v>
+        <v>48.56</v>
       </c>
       <c r="K14">
-        <v>327.68</v>
+        <v>400</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.5999999999999998E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="O14">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P14" t="s">
         <v>2</v>
       </c>
       <c r="Q14">
-        <v>63.95</v>
+        <v>19.53</v>
       </c>
       <c r="R14">
-        <v>364.09</v>
+        <v>400</v>
       </c>
       <c r="S14" t="b">
         <v>1</v>
       </c>
       <c r="T14">
-        <v>1995.2739999999999</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>79.3</v>
+        <v>70.06</v>
       </c>
       <c r="D15">
         <v>400</v>
@@ -7057,54 +7058,54 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H15">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>21.18</v>
+        <v>60.01</v>
       </c>
       <c r="K15">
-        <v>400</v>
+        <v>297.89</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.0000000000000001E-3</v>
+        <v>1.7030000000000001</v>
       </c>
       <c r="O15">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P15" t="s">
         <v>2</v>
       </c>
       <c r="Q15">
-        <v>11.68</v>
+        <v>18.61</v>
       </c>
       <c r="R15">
-        <v>242.73</v>
+        <v>204.8</v>
       </c>
       <c r="S15" t="b">
         <v>1</v>
       </c>
       <c r="T15">
-        <v>12.29</v>
+        <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>83.44</v>
+        <v>62.42</v>
       </c>
       <c r="D16">
         <v>400</v>
@@ -7113,54 +7114,54 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H16">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>54.28</v>
+        <v>40.229999999999997</v>
       </c>
       <c r="K16">
-        <v>204.8</v>
+        <v>327.68</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16054.233</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="O16">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s">
         <v>2</v>
       </c>
       <c r="Q16">
-        <v>19.75</v>
+        <v>63.95</v>
       </c>
       <c r="R16">
-        <v>273.07</v>
+        <v>364.09</v>
       </c>
       <c r="S16" t="b">
         <v>1</v>
       </c>
       <c r="T16">
-        <v>3.2000000000000001E-2</v>
+        <v>1995.2739999999999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>95.48</v>
+        <v>79.3</v>
       </c>
       <c r="D17">
         <v>400</v>
@@ -7169,110 +7170,110 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H17">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>62.15</v>
+        <v>21.18</v>
       </c>
       <c r="K17">
-        <v>354.25</v>
+        <v>400</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.885999999999999</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O17">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s">
         <v>2</v>
       </c>
       <c r="Q17">
-        <v>18.82</v>
+        <v>11.68</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>242.73</v>
       </c>
       <c r="S17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>1.0999999999999999E-2</v>
+        <v>12.29</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>74.41</v>
+        <v>83.44</v>
       </c>
       <c r="D18">
-        <v>364.09</v>
+        <v>400</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>3.9E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I18" t="s">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>39.700000000000003</v>
+        <v>54.28</v>
       </c>
       <c r="K18">
-        <v>297.89</v>
+        <v>204.8</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.6999999999999994E-2</v>
+        <v>16054.233</v>
       </c>
       <c r="O18">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P18" t="s">
         <v>2</v>
       </c>
       <c r="Q18">
-        <v>19.34</v>
+        <v>19.75</v>
       </c>
       <c r="R18">
-        <v>400</v>
+        <v>273.07</v>
       </c>
       <c r="S18" t="b">
         <v>1</v>
       </c>
       <c r="T18">
-        <v>1.0999999999999999E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>91.99</v>
+        <v>95.48</v>
       </c>
       <c r="D19">
         <v>400</v>
@@ -7281,110 +7282,110 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>2E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I19" t="s">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>67.239999999999995</v>
+        <v>62.15</v>
       </c>
       <c r="K19">
-        <v>204.8</v>
+        <v>354.25</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.8000000000000004E-2</v>
+        <v>13.885999999999999</v>
       </c>
       <c r="O19">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P19" t="s">
         <v>2</v>
       </c>
       <c r="Q19">
-        <v>48.14</v>
+        <v>18.82</v>
       </c>
       <c r="R19">
-        <v>204.8</v>
+        <v>0</v>
       </c>
       <c r="S19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>3.2639999999999998</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>74.900000000000006</v>
+        <v>74.41</v>
       </c>
       <c r="D20">
-        <v>400</v>
+        <v>364.09</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>2E-3</v>
+        <v>3.9E-2</v>
       </c>
       <c r="H20">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I20" t="s">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>37.85</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="K20">
-        <v>400</v>
+        <v>297.89</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.0000000000000001E-3</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="O20">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="P20" t="s">
         <v>2</v>
       </c>
       <c r="Q20">
-        <v>16.5</v>
+        <v>19.34</v>
       </c>
       <c r="R20">
-        <v>291.27</v>
+        <v>400</v>
       </c>
       <c r="S20" t="b">
         <v>1</v>
       </c>
       <c r="T20">
-        <v>160.703</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>77.55</v>
+        <v>91.99</v>
       </c>
       <c r="D21">
         <v>400</v>
@@ -7393,54 +7394,54 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>6.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H21">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>33.89</v>
+        <v>67.239999999999995</v>
       </c>
       <c r="K21">
-        <v>311.16000000000003</v>
+        <v>204.8</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.47599999999999998</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="O21">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s">
         <v>2</v>
       </c>
       <c r="Q21">
-        <v>11.71</v>
+        <v>48.14</v>
       </c>
       <c r="R21">
-        <v>229.95</v>
+        <v>204.8</v>
       </c>
       <c r="S21" t="b">
         <v>1</v>
       </c>
       <c r="T21">
-        <v>0.17299999999999999</v>
+        <v>3.2639999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>85.08</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="D22">
         <v>400</v>
@@ -7449,54 +7450,54 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="H22">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>52.39</v>
+        <v>37.85</v>
       </c>
       <c r="K22">
-        <v>312.08</v>
+        <v>400</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.1999999999999998E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O22">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="P22" t="s">
         <v>2</v>
       </c>
       <c r="Q22">
-        <v>18.78</v>
+        <v>16.5</v>
       </c>
       <c r="R22">
-        <v>400</v>
+        <v>291.27</v>
       </c>
       <c r="S22" t="b">
         <v>1</v>
       </c>
       <c r="T22">
-        <v>1.4999999999999999E-2</v>
+        <v>160.703</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>75.95</v>
+        <v>77.55</v>
       </c>
       <c r="D23">
         <v>400</v>
@@ -7505,54 +7506,54 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>2.4E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H23">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I23" t="s">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>46.23</v>
+        <v>33.89</v>
       </c>
       <c r="K23">
-        <v>400</v>
+        <v>311.16000000000003</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2E-3</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="O23">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="P23" t="s">
         <v>2</v>
       </c>
       <c r="Q23">
-        <v>38.56</v>
+        <v>11.71</v>
       </c>
       <c r="R23">
-        <v>182.04</v>
+        <v>229.95</v>
       </c>
       <c r="S23" t="b">
         <v>1</v>
       </c>
       <c r="T23">
-        <v>5.2999999999999999E-2</v>
+        <v>0.17299999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>80.040000000000006</v>
+        <v>85.08</v>
       </c>
       <c r="D24">
         <v>400</v>
@@ -7561,54 +7562,54 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I24" t="s">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>24.79</v>
+        <v>52.39</v>
       </c>
       <c r="K24">
-        <v>311.16000000000003</v>
+        <v>312.08</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.0000000000000001E-3</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="O24">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="P24" t="s">
         <v>2</v>
       </c>
       <c r="Q24">
-        <v>4.5</v>
+        <v>18.78</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>2.0680000000000001</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>82.65</v>
+        <v>75.95</v>
       </c>
       <c r="D25">
         <v>400</v>
@@ -7617,16 +7618,16 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2.4E-2</v>
       </c>
       <c r="H25">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I25" t="s">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>27.93</v>
+        <v>46.23</v>
       </c>
       <c r="K25">
         <v>400</v>
@@ -7635,36 +7636,36 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.5999999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="O25">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="P25" t="s">
         <v>2</v>
       </c>
       <c r="Q25">
-        <v>48.12</v>
+        <v>38.56</v>
       </c>
       <c r="R25">
-        <v>273.07</v>
+        <v>182.04</v>
       </c>
       <c r="S25" t="b">
         <v>1</v>
       </c>
       <c r="T25">
-        <v>2.9249999999999998</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>94.12</v>
+        <v>80.040000000000006</v>
       </c>
       <c r="D26">
         <v>400</v>
@@ -7673,36 +7674,54 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H26">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>56.92</v>
+        <v>24.79</v>
       </c>
       <c r="K26">
-        <v>400</v>
+        <v>311.16000000000003</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1E-3</v>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O26">
+        <v>96</v>
+      </c>
+      <c r="P26" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>4.5</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>2.0680000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>66.05</v>
+        <v>82.65</v>
       </c>
       <c r="D27">
         <v>400</v>
@@ -7711,114 +7730,168 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>61.25</v>
+        <v>27.93</v>
       </c>
       <c r="K27">
-        <v>291.27</v>
+        <v>400</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1131.835</v>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O27">
+        <v>99</v>
+      </c>
+      <c r="P27" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>48.12</v>
+      </c>
+      <c r="R27">
+        <v>273.07</v>
+      </c>
+      <c r="S27" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>2.9249999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>94.12</v>
+      </c>
+      <c r="D28">
+        <v>400</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>43</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>56.92</v>
+      </c>
+      <c r="K28">
+        <v>400</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>66.05</v>
+      </c>
+      <c r="D29">
+        <v>400</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H29">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>61.25</v>
+      </c>
+      <c r="K29">
+        <v>291.27</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1131.835</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30">
         <v>97</v>
       </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>71.680000000000007</v>
       </c>
-      <c r="D28">
-        <v>400</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28">
+      <c r="D30">
+        <v>400</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H28">
+      <c r="H30">
         <v>45</v>
       </c>
-      <c r="I28" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28">
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30">
         <v>48.47</v>
       </c>
-      <c r="K28">
-        <v>400</v>
-      </c>
-      <c r="L28" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28">
+      <c r="K30">
+        <v>400</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30">
         <v>2E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="H29">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>41.02</v>
-      </c>
-      <c r="K29">
-        <v>400</v>
-      </c>
-      <c r="L29" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="H30">
-        <v>50</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>69.05</v>
-      </c>
-      <c r="K30">
-        <v>267.49</v>
-      </c>
-      <c r="L30" t="b">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="H31">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>43.92</v>
+        <v>41.02</v>
       </c>
       <c r="K31">
         <v>400</v>
@@ -7827,98 +7900,98 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.5000000000000003E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="H32">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>37.74</v>
+        <v>69.05</v>
       </c>
       <c r="K32">
-        <v>91.02</v>
+        <v>267.49</v>
       </c>
       <c r="L32" t="b">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="8:13">
       <c r="H33">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>66.23</v>
+        <v>43.92</v>
       </c>
       <c r="K33">
-        <v>267.49</v>
+        <v>400</v>
       </c>
       <c r="L33" t="b">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2065.549</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="34" spans="8:13">
       <c r="H34">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I34" t="s">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>31.25</v>
+        <v>37.74</v>
       </c>
       <c r="K34">
-        <v>400</v>
+        <v>91.02</v>
       </c>
       <c r="L34" t="b">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.0000000000000002E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="35" spans="8:13">
       <c r="H35">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I35" t="s">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>42.68</v>
+        <v>66.23</v>
       </c>
       <c r="K35">
-        <v>400</v>
+        <v>267.49</v>
       </c>
       <c r="L35" t="b">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.0999999999999999E-2</v>
+        <v>2065.549</v>
       </c>
     </row>
     <row r="36" spans="8:13">
       <c r="H36">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I36" t="s">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>47.82</v>
+        <v>31.25</v>
       </c>
       <c r="K36">
         <v>400</v>
@@ -7927,18 +8000,18 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.7000000000000002E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="37" spans="8:13">
       <c r="H37">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I37" t="s">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>68.540000000000006</v>
+        <v>42.68</v>
       </c>
       <c r="K37">
         <v>400</v>
@@ -7947,18 +8020,18 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>7.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="38" spans="8:13">
       <c r="H38">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I38" t="s">
         <v>1</v>
       </c>
       <c r="J38">
-        <v>32.07</v>
+        <v>47.82</v>
       </c>
       <c r="K38">
         <v>400</v>
@@ -7967,38 +8040,38 @@
         <v>1</v>
       </c>
       <c r="M38">
-        <v>2E-3</v>
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="39" spans="8:13">
       <c r="H39">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I39" t="s">
         <v>1</v>
       </c>
       <c r="J39">
-        <v>54.55</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="K39">
-        <v>148.94999999999999</v>
+        <v>400</v>
       </c>
       <c r="L39" t="b">
         <v>1</v>
       </c>
       <c r="M39">
-        <v>1E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="40" spans="8:13">
       <c r="H40">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I40" t="s">
         <v>1</v>
       </c>
       <c r="J40">
-        <v>29.28</v>
+        <v>32.07</v>
       </c>
       <c r="K40">
         <v>400</v>
@@ -8012,33 +8085,33 @@
     </row>
     <row r="41" spans="8:13">
       <c r="H41">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I41" t="s">
         <v>1</v>
       </c>
       <c r="J41">
-        <v>37.82</v>
+        <v>54.55</v>
       </c>
       <c r="K41">
-        <v>310.24</v>
+        <v>148.94999999999999</v>
       </c>
       <c r="L41" t="b">
         <v>1</v>
       </c>
       <c r="M41">
-        <v>9.4E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="42" spans="8:13">
       <c r="H42">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s">
         <v>1</v>
       </c>
       <c r="J42">
-        <v>24.94</v>
+        <v>29.28</v>
       </c>
       <c r="K42">
         <v>400</v>
@@ -8047,38 +8120,38 @@
         <v>1</v>
       </c>
       <c r="M42">
-        <v>1.2999999999999999E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="43" spans="8:13">
       <c r="H43">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I43" t="s">
         <v>1</v>
       </c>
       <c r="J43">
-        <v>35.14</v>
+        <v>37.82</v>
       </c>
       <c r="K43">
-        <v>400</v>
+        <v>310.24</v>
       </c>
       <c r="L43" t="b">
         <v>1</v>
       </c>
       <c r="M43">
-        <v>1.7000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="44" spans="8:13">
       <c r="H44">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I44" t="s">
         <v>1</v>
       </c>
       <c r="J44">
-        <v>55.38</v>
+        <v>24.94</v>
       </c>
       <c r="K44">
         <v>400</v>
@@ -8087,130 +8160,2158 @@
         <v>1</v>
       </c>
       <c r="M44">
-        <v>2E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="8:13">
       <c r="H45">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s">
         <v>1</v>
       </c>
       <c r="J45">
-        <v>60.61</v>
+        <v>35.14</v>
       </c>
       <c r="K45">
-        <v>272.70999999999998</v>
+        <v>400</v>
       </c>
       <c r="L45" t="b">
         <v>1</v>
       </c>
       <c r="M45">
-        <v>9.6000000000000002E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="8:13">
       <c r="H46">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s">
         <v>1</v>
       </c>
       <c r="J46">
-        <v>52.1</v>
+        <v>55.38</v>
       </c>
       <c r="K46">
-        <v>364.09</v>
+        <v>400</v>
       </c>
       <c r="L46" t="b">
         <v>1</v>
       </c>
       <c r="M46">
-        <v>0.151</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="47" spans="8:13">
       <c r="H47">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I47" t="s">
         <v>1</v>
       </c>
       <c r="J47">
-        <v>57.32</v>
+        <v>60.61</v>
       </c>
       <c r="K47">
-        <v>400</v>
+        <v>272.70999999999998</v>
       </c>
       <c r="L47" t="b">
         <v>1</v>
       </c>
       <c r="M47">
-        <v>2E-3</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="48" spans="8:13">
       <c r="H48">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I48" t="s">
         <v>1</v>
       </c>
       <c r="J48">
-        <v>42.15</v>
+        <v>52.1</v>
       </c>
       <c r="K48">
-        <v>354.25</v>
+        <v>364.09</v>
       </c>
       <c r="L48" t="b">
         <v>1</v>
       </c>
       <c r="M48">
-        <v>12.581</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="49" spans="8:13">
       <c r="H49">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I49" t="s">
         <v>1</v>
       </c>
       <c r="J49">
-        <v>39.99</v>
+        <v>57.32</v>
       </c>
       <c r="K49">
-        <v>327.68</v>
+        <v>400</v>
       </c>
       <c r="L49" t="b">
         <v>1</v>
       </c>
       <c r="M49">
-        <v>1.4219999999999999</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="50" spans="8:13">
       <c r="H50">
+        <v>91</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>42.15</v>
+      </c>
+      <c r="K50">
+        <v>354.25</v>
+      </c>
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>12.581</v>
+      </c>
+    </row>
+    <row r="51" spans="8:13">
+      <c r="H51">
+        <v>94</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>39.99</v>
+      </c>
+      <c r="K51">
+        <v>327.68</v>
+      </c>
+      <c r="L51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1.4219999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="8:13">
+      <c r="H52">
         <v>98</v>
       </c>
-      <c r="I50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J50">
+      <c r="I52" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52">
         <v>66.86</v>
       </c>
-      <c r="K50">
+      <c r="K52">
         <v>252.06</v>
       </c>
-      <c r="L50" t="b">
-        <v>1</v>
-      </c>
-      <c r="M50">
+      <c r="L52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52">
         <v>0.14899999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="A3:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="17" max="17" width="11.375" customWidth="1"/>
+    <col min="18" max="18" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1">
+        <v>44</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>84.65</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>64.14</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>33.79</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>69.92</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>60.17</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>12.37</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>72.58</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>50.87</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>71.67</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>11.83</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>86.7</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>43.37</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>3.53</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>85.49</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>33.81</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O9">
+        <v>28</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>28.2</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>64.91</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>3.1E-2</v>
+      </c>
+      <c r="O10">
+        <v>31</v>
+      </c>
+      <c r="P10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>18.11</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>71.48</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H11">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>70.73</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O11">
+        <v>35</v>
+      </c>
+      <c r="P11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>14.51</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>79.55</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H12">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>39.64</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>3.1E-2</v>
+      </c>
+      <c r="O12">
+        <v>39</v>
+      </c>
+      <c r="P12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>37.76</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>73.53</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H13">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>33.42</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O13">
+        <v>41</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>41.84</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>69.88</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>45.05</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O14">
+        <v>58</v>
+      </c>
+      <c r="P14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>12.07</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>67.209999999999994</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H15">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>27.34</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>3.1E-2</v>
+      </c>
+      <c r="O15">
+        <v>64</v>
+      </c>
+      <c r="P15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>5.77</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>94.63</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H16">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>47.56</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O16">
+        <v>71</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>2.67</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>68.069999999999993</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H17">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>58.59</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>76</v>
+      </c>
+      <c r="P17" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>40.06</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="S17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>85.84</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>44.22</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O18">
+        <v>84</v>
+      </c>
+      <c r="P18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>49.09</v>
+      </c>
+      <c r="R18">
+        <v>6</v>
+      </c>
+      <c r="S18" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>90.95</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>62.67</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O19">
+        <v>89</v>
+      </c>
+      <c r="P19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>52.74</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>84.59</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>44.33</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O20">
+        <v>91</v>
+      </c>
+      <c r="P20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>0.2</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>75.53</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>27.88</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O21">
+        <v>93</v>
+      </c>
+      <c r="P21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>43.45</v>
+      </c>
+      <c r="R21">
+        <v>6</v>
+      </c>
+      <c r="S21" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>72.45</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>44</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>60.85</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>95</v>
+      </c>
+      <c r="P22" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>75.430000000000007</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H23">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>66.36</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>82.44</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H24">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>61.62</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>86.92</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>23.6</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>74.41</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>65.319999999999993</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>73.7</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>51</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>26.32</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>63.34</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H28">
+        <v>52</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>31.44</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>76.650000000000006</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H29">
+        <v>53</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>70.58</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>74.11</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>54</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>46.61</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>69.709999999999994</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H31">
+        <v>55</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>72.2</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>87.44</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H32">
+        <v>56</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>53.71</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>83.1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H33">
+        <v>57</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>73.16</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>87.2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>59</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>58.38</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>97.52</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>60</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>23.26</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>82.51</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>62</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>49.65</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>80.34</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H37">
+        <v>63</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>49.26</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>94.66</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>65</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>65.8</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H39">
+        <v>68</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>33.18</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>85.62</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H40">
+        <v>70</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>29.25</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40" t="s">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="H41">
+        <v>73</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>58.73</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="H42">
+        <v>83</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>32.44</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="H43">
+        <v>86</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>53.7</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="H44">
+        <v>87</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>57.1</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="H45">
+        <v>88</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>32.5</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="H46">
+        <v>96</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>36.32</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="H47">
+        <v>98</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>74.45</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Codes/ModeloAlocacao/dados_experimentos.xlsx
+++ b/Codes/ModeloAlocacao/dados_experimentos.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="macmini_leves" sheetId="2" r:id="rId1"/>
     <sheet name="macbook(ignorar)" sheetId="1" r:id="rId2"/>
-    <sheet name="categorias" sheetId="3" r:id="rId3"/>
-    <sheet name="ResultadosModeloII" sheetId="4" r:id="rId4"/>
+    <sheet name="histo m1" sheetId="7" r:id="rId3"/>
+    <sheet name="categ M1" sheetId="3" r:id="rId4"/>
+    <sheet name="categ M2" sheetId="4" r:id="rId5"/>
+    <sheet name="histo m2" sheetId="23" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="resultados_1" localSheetId="2">categorias!$A$5:$F$102</definedName>
+    <definedName name="resultados_1" localSheetId="3">'categ M1'!$A$5:$F$102</definedName>
     <definedName name="resultados_1" localSheetId="1">'macbook(ignorar)'!$H$1:$M$98</definedName>
     <definedName name="resultados_1" localSheetId="0">macmini_leves!$A$1:$F$100</definedName>
     <definedName name="resultados_buffers_leves" localSheetId="1">'macbook(ignorar)'!$A$1:$F$98</definedName>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="25">
   <si>
     <t>f</t>
   </si>
@@ -113,12 +115,42 @@
   <si>
     <t>Frequencia</t>
   </si>
+  <si>
+    <t>Intervalos</t>
+  </si>
+  <si>
+    <t>Bloco</t>
+  </si>
+  <si>
+    <t>Mais</t>
+  </si>
+  <si>
+    <t>Freqüência</t>
+  </si>
+  <si>
+    <t>Modelo I</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Despedícios</t>
+  </si>
+  <si>
+    <t>Médios</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
+  <si>
+    <t>Frequencias</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,6 +197,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,12 +214,32 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -192,10 +252,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
@@ -209,6 +275,1661 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pt-BR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Histograma</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Freqüência</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'histo m1'!$L$7:$L$28</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Mais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'histo m1'!$M$7:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="71766784"/>
+        <c:axId val="71768320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="71766784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Bloco</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71768320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="71768320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Freqüência</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71766784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pt-BR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Histograma</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Freqüência</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>#REF!</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="75039488"/>
+        <c:axId val="75041792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="75039488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Bloco</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75041792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75041792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Freqüência</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75039488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pt-BR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Histograma</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Freqüência</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>#REF!</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="75004544"/>
+        <c:axId val="84827520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="75004544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Bloco</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84827520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84827520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Freqüência</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75004544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pt-BR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Histograma</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Freqüência</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>#REF!</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="74956160"/>
+        <c:axId val="75342592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="74956160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Bloco</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75342592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75342592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Freqüência</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74956160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pt-BR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Histograma</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Freqüência</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'histo m1'!$L$36:$L$43</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0,001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2293,462714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4586,924429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6880,386143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9173,847857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11467,30957</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13760,77129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'histo m1'!$M$36:$M$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="106070016"/>
+        <c:axId val="106071936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="106070016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Bloco</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106071936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="106071936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Freqüência</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106070016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pt-BR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Histograma</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Freqüência</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'histo m1'!$W$36:$W$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0,002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18141,1265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36282,251</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54423,3755</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'histo m1'!$X$36:$X$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="106294656"/>
+        <c:axId val="106341888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="106294656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Bloco</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106341888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="106341888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Freqüência</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106294656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pt-BR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Histograma</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Freqüência</c:v>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>#REF!$A$2:$A$7</c:f>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>#REF!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="107817600"/>
+        <c:axId val="107375232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="107817600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Bloco</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107375232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107375232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Freqüência</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107817600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pt-BR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Histograma</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Freqüência</c:v>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>#REF!$A$2:$A$11</c:f>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>#REF!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="107741184"/>
+        <c:axId val="114547328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="107741184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Bloco</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114547328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="114547328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Freqüência</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107741184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pt-BR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Histograma</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Freqüência</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>#REF!</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="106477824"/>
+        <c:axId val="106521728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="106477824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Bloco</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106521728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="106521728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Freqüência</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106477824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Gráfico 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,7 +2273,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2580,8 +4301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6335,10 +8056,980 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="S39" workbookViewId="0">
+      <selection activeCell="AE51" sqref="AE51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="16.5" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>5</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>5</v>
+      </c>
+      <c r="X8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="3">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>10</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>10</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="3">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>15</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>15</v>
+      </c>
+      <c r="X10" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="3">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>20</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>20</v>
+      </c>
+      <c r="X11" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="3">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>25</v>
+      </c>
+      <c r="M12" s="4">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3">
+        <v>25</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="3">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>30</v>
+      </c>
+      <c r="M13" s="4">
+        <v>3</v>
+      </c>
+      <c r="W13" s="3">
+        <v>30</v>
+      </c>
+      <c r="X13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="3">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>35</v>
+      </c>
+      <c r="M14" s="4">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
+        <v>35</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="3">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>40</v>
+      </c>
+      <c r="M15" s="4">
+        <v>6</v>
+      </c>
+      <c r="W15" s="3">
+        <v>40</v>
+      </c>
+      <c r="X15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="3">
+        <v>45</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>45</v>
+      </c>
+      <c r="M16" s="4">
+        <v>6</v>
+      </c>
+      <c r="W16" s="3">
+        <v>45</v>
+      </c>
+      <c r="X16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="3">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>50</v>
+      </c>
+      <c r="M17" s="4">
+        <v>6</v>
+      </c>
+      <c r="W17" s="3">
+        <v>50</v>
+      </c>
+      <c r="X17" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="3">
+        <v>55</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>55</v>
+      </c>
+      <c r="M18" s="4">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
+        <v>55</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="3">
+        <v>60</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>60</v>
+      </c>
+      <c r="M19" s="4">
+        <v>3</v>
+      </c>
+      <c r="W19" s="3">
+        <v>60</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="3">
+        <v>65</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="L20" s="3">
+        <v>65</v>
+      </c>
+      <c r="M20" s="4">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
+        <v>65</v>
+      </c>
+      <c r="X20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="3">
+        <v>70</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
+        <v>70</v>
+      </c>
+      <c r="M21" s="4">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
+        <v>70</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="3">
+        <v>75</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
+        <v>75</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>75</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="3">
+        <v>80</v>
+      </c>
+      <c r="B23" s="4">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3">
+        <v>80</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>80</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="3">
+        <v>85</v>
+      </c>
+      <c r="B24" s="4">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3">
+        <v>85</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1</v>
+      </c>
+      <c r="W24" s="3">
+        <v>85</v>
+      </c>
+      <c r="X24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="3">
+        <v>90</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3</v>
+      </c>
+      <c r="L25" s="3">
+        <v>90</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>90</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="3">
+        <v>95</v>
+      </c>
+      <c r="B26" s="4">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3">
+        <v>95</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>95</v>
+      </c>
+      <c r="X26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="3">
+        <v>100</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2</v>
+      </c>
+      <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="16.5" thickBot="1">
+      <c r="A28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" t="s">
+        <v>22</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="16.5" thickBot="1">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X35" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" s="4">
+        <v>0</v>
+      </c>
+      <c r="B36" s="4">
+        <v>3</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="M36" s="4">
+        <v>4</v>
+      </c>
+      <c r="W36" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="X36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" s="4">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="B37" s="4">
+        <v>19</v>
+      </c>
+      <c r="L37" s="4">
+        <v>2293.4627142857144</v>
+      </c>
+      <c r="M37" s="4">
+        <v>44</v>
+      </c>
+      <c r="W37" s="4">
+        <v>18141.126500000002</v>
+      </c>
+      <c r="X37" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" s="4">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="B38" s="4">
+        <v>3</v>
+      </c>
+      <c r="L38" s="4">
+        <v>4586.9244285714285</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="W38" s="4">
+        <v>36282.251000000004</v>
+      </c>
+      <c r="X38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" s="4">
+        <v>2.3399999999999997E-2</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>6880.3861428571427</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="W39" s="4">
+        <v>54423.375500000002</v>
+      </c>
+      <c r="X39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="16.5" thickBot="1">
+      <c r="A40" s="4">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="L40" s="4">
+        <v>9173.8478571428568</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="16.5" thickBot="1">
+      <c r="A41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="L41" s="4">
+        <v>11467.30957142857</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="L42" s="4">
+        <v>13760.771285714285</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="16.5" thickBot="1">
+      <c r="L43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" t="s">
+        <v>22</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="16.5" thickBot="1">
+      <c r="A53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X54" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" s="3">
+        <v>360</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <v>200</v>
+      </c>
+      <c r="M55" s="4">
+        <v>2</v>
+      </c>
+      <c r="W55" s="3">
+        <v>150</v>
+      </c>
+      <c r="X55" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56" s="3">
+        <v>370</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="L56" s="3">
+        <v>225</v>
+      </c>
+      <c r="M56" s="4">
+        <v>2</v>
+      </c>
+      <c r="W56" s="3">
+        <v>175</v>
+      </c>
+      <c r="X56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57" s="3">
+        <v>380</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>250</v>
+      </c>
+      <c r="M57" s="4">
+        <v>1</v>
+      </c>
+      <c r="W57" s="3">
+        <v>200</v>
+      </c>
+      <c r="X57" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58" s="3">
+        <v>390</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>275</v>
+      </c>
+      <c r="M58" s="4">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
+        <v>225</v>
+      </c>
+      <c r="X58" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59" s="3">
+        <v>400</v>
+      </c>
+      <c r="B59" s="4">
+        <v>26</v>
+      </c>
+      <c r="L59" s="3">
+        <v>300</v>
+      </c>
+      <c r="M59" s="4">
+        <v>3</v>
+      </c>
+      <c r="W59" s="3">
+        <v>250</v>
+      </c>
+      <c r="X59" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="16.5" thickBot="1">
+      <c r="A60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>325</v>
+      </c>
+      <c r="M60" s="4">
+        <v>4</v>
+      </c>
+      <c r="W60" s="3">
+        <v>275</v>
+      </c>
+      <c r="X60" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="L61" s="3">
+        <v>350</v>
+      </c>
+      <c r="M61" s="4">
+        <v>2</v>
+      </c>
+      <c r="W61" s="3">
+        <v>300</v>
+      </c>
+      <c r="X61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="L62" s="3">
+        <v>375</v>
+      </c>
+      <c r="M62" s="4">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
+        <v>325</v>
+      </c>
+      <c r="X62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="L63" s="3">
+        <v>400</v>
+      </c>
+      <c r="M63" s="4">
+        <v>25</v>
+      </c>
+      <c r="W63" s="3">
+        <v>350</v>
+      </c>
+      <c r="X63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="16.5" thickBot="1">
+      <c r="L64" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M64" s="5">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>375</v>
+      </c>
+      <c r="X64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="23:24">
+      <c r="W65" s="3">
+        <v>400</v>
+      </c>
+      <c r="X65" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="23:24" ht="16.5" thickBot="1">
+      <c r="W66" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="L7:L27">
+    <sortCondition ref="L2"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7923,7 +10614,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="8:13">
+    <row r="33" spans="1:13">
       <c r="H33">
         <v>51</v>
       </c>
@@ -7943,7 +10634,10 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="34" spans="8:13">
+    <row r="34" spans="1:13">
+      <c r="C34">
+        <v>150</v>
+      </c>
       <c r="H34">
         <v>54</v>
       </c>
@@ -7963,7 +10657,13 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="35" spans="8:13">
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>175</v>
+      </c>
       <c r="H35">
         <v>55</v>
       </c>
@@ -7983,7 +10683,16 @@
         <v>2065.549</v>
       </c>
     </row>
-    <row r="36" spans="8:13">
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>360</v>
+      </c>
+      <c r="C36">
+        <v>200</v>
+      </c>
       <c r="H36">
         <v>65</v>
       </c>
@@ -8003,7 +10712,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="37" spans="8:13">
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>370</v>
+      </c>
+      <c r="C37">
+        <v>225</v>
+      </c>
       <c r="H37">
         <v>66</v>
       </c>
@@ -8023,7 +10741,16 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="8:13">
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>380</v>
+      </c>
+      <c r="C38">
+        <v>250</v>
+      </c>
       <c r="H38">
         <v>67</v>
       </c>
@@ -8043,7 +10770,16 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="39" spans="8:13">
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>390</v>
+      </c>
+      <c r="C39">
+        <v>275</v>
+      </c>
       <c r="H39">
         <v>68</v>
       </c>
@@ -8063,7 +10799,16 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="8:13">
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>400</v>
+      </c>
+      <c r="C40">
+        <v>300</v>
+      </c>
       <c r="H40">
         <v>69</v>
       </c>
@@ -8083,7 +10828,13 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="41" spans="8:13">
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <v>325</v>
+      </c>
       <c r="H41">
         <v>72</v>
       </c>
@@ -8103,7 +10854,13 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="42" spans="8:13">
+    <row r="42" spans="1:13">
+      <c r="A42">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>350</v>
+      </c>
       <c r="H42">
         <v>73</v>
       </c>
@@ -8123,7 +10880,13 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="43" spans="8:13">
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="C43">
+        <v>375</v>
+      </c>
       <c r="H43">
         <v>74</v>
       </c>
@@ -8143,7 +10906,13 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="44" spans="8:13">
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>400</v>
+      </c>
       <c r="H44">
         <v>75</v>
       </c>
@@ -8163,7 +10932,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="8:13">
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>45</v>
+      </c>
       <c r="H45">
         <v>77</v>
       </c>
@@ -8183,7 +10955,10 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="8:13">
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>50</v>
+      </c>
       <c r="H46">
         <v>82</v>
       </c>
@@ -8203,7 +10978,10 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="47" spans="8:13">
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <v>55</v>
+      </c>
       <c r="H47">
         <v>83</v>
       </c>
@@ -8223,7 +11001,10 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="48" spans="8:13">
+    <row r="48" spans="1:13">
+      <c r="A48">
+        <v>60</v>
+      </c>
       <c r="H48">
         <v>87</v>
       </c>
@@ -8243,7 +11024,10 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="49" spans="8:13">
+    <row r="49" spans="1:13">
+      <c r="A49">
+        <v>65</v>
+      </c>
       <c r="H49">
         <v>90</v>
       </c>
@@ -8263,7 +11047,10 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="50" spans="8:13">
+    <row r="50" spans="1:13">
+      <c r="A50">
+        <v>70</v>
+      </c>
       <c r="H50">
         <v>91</v>
       </c>
@@ -8283,7 +11070,10 @@
         <v>12.581</v>
       </c>
     </row>
-    <row r="51" spans="8:13">
+    <row r="51" spans="1:13">
+      <c r="A51">
+        <v>75</v>
+      </c>
       <c r="H51">
         <v>94</v>
       </c>
@@ -8303,7 +11093,10 @@
         <v>1.4219999999999999</v>
       </c>
     </row>
-    <row r="52" spans="8:13">
+    <row r="52" spans="1:13">
+      <c r="A52">
+        <v>80</v>
+      </c>
       <c r="H52">
         <v>98</v>
       </c>
@@ -8321,6 +11114,26 @@
       </c>
       <c r="M52">
         <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -8328,12 +11141,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="A3:F3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -10314,4 +13127,18 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Codes/ModeloAlocacao/dados_experimentos.xlsx
+++ b/Codes/ModeloAlocacao/dados_experimentos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="macmini_leves" sheetId="2" r:id="rId1"/>
@@ -21,11 +21,6 @@
     <definedName name="resultados_buffers_leves" localSheetId="1">'macbook(ignorar)'!$A$1:$F$98</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -69,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="32">
   <si>
     <t>f</t>
   </si>
@@ -93,9 +88,6 @@
   </si>
   <si>
     <t xml:space="preserve">  Desperdício</t>
-  </si>
-  <si>
-    <t>qtd de memorias</t>
   </si>
   <si>
     <t xml:space="preserve">   Tempo</t>
@@ -145,14 +137,54 @@
   <si>
     <t>Frequencias</t>
   </si>
+  <si>
+    <t>memUsadas</t>
+  </si>
+  <si>
+    <t>memDisp</t>
+  </si>
+  <si>
+    <t>memUsada</t>
+  </si>
+  <si>
+    <t>memUsad</t>
+  </si>
+  <si>
+    <t>DesperdicioApos</t>
+  </si>
+  <si>
+    <t>Desperdicio Após</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,37
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,38
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="25">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -205,16 +237,310 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -242,38 +568,329 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="47" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="47"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="47"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="63">
+    <cellStyle name="20% - Ênfase1" xfId="24" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase1 2" xfId="51"/>
+    <cellStyle name="20% - Ênfase2" xfId="28" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2 2" xfId="53"/>
+    <cellStyle name="20% - Ênfase3" xfId="32" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3 2" xfId="55"/>
+    <cellStyle name="20% - Ênfase4" xfId="36" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4 2" xfId="57"/>
+    <cellStyle name="20% - Ênfase5" xfId="40" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5 2" xfId="59"/>
+    <cellStyle name="20% - Ênfase6" xfId="44" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6 2" xfId="61"/>
+    <cellStyle name="40% - Ênfase1" xfId="25" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1 2" xfId="52"/>
+    <cellStyle name="40% - Ênfase2" xfId="29" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2 2" xfId="54"/>
+    <cellStyle name="40% - Ênfase3" xfId="33" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3 2" xfId="56"/>
+    <cellStyle name="40% - Ênfase4" xfId="37" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4 2" xfId="58"/>
+    <cellStyle name="40% - Ênfase5" xfId="41" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5 2" xfId="60"/>
+    <cellStyle name="40% - Ênfase6" xfId="45" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6 2" xfId="62"/>
+    <cellStyle name="60% - Ênfase1" xfId="26" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="30" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="34" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="38" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="42" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="46" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="12" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="17" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="18" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="23" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="27" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="31" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="39" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="43" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="15" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink seguido" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink seguido" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink seguido" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Incorreto" xfId="13" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutra" xfId="14" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="47"/>
+    <cellStyle name="Normal 3" xfId="49"/>
+    <cellStyle name="Nota 2" xfId="48"/>
+    <cellStyle name="Nota 3" xfId="50"/>
+    <cellStyle name="Saída" xfId="16" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="20" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="21" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="7" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="8" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -297,7 +914,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -460,11 +1076,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="71766784"/>
-        <c:axId val="71768320"/>
+        <c:axId val="98231808"/>
+        <c:axId val="100605952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71766784"/>
+        <c:axId val="98231808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -485,17 +1101,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71768320"/>
+        <c:crossAx val="100605952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71768320"/>
+        <c:axId val="100605952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -516,24 +1131,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71766784"/>
+        <c:crossAx val="98231808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -559,7 +1172,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -573,9 +1185,9 @@
             <c:v>Freqüência</c:v>
           </c:tx>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>#REF!</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -590,11 +1202,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75039488"/>
-        <c:axId val="75041792"/>
+        <c:axId val="100621696"/>
+        <c:axId val="100644352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75039488"/>
+        <c:axId val="100621696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,17 +1227,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75041792"/>
+        <c:crossAx val="100644352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75041792"/>
+        <c:axId val="100644352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,24 +1257,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75039488"/>
+        <c:crossAx val="100621696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -689,7 +1298,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -703,9 +1311,9 @@
             <c:v>Freqüência</c:v>
           </c:tx>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>#REF!</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -720,11 +1328,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75004544"/>
-        <c:axId val="84827520"/>
+        <c:axId val="92083712"/>
+        <c:axId val="92085632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75004544"/>
+        <c:axId val="92083712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -745,17 +1353,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84827520"/>
+        <c:crossAx val="92085632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84827520"/>
+        <c:axId val="92085632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,24 +1383,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75004544"/>
+        <c:crossAx val="92083712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -819,7 +1424,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -833,9 +1437,9 @@
             <c:v>Freqüência</c:v>
           </c:tx>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>#REF!</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -850,11 +1454,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="74956160"/>
-        <c:axId val="75342592"/>
+        <c:axId val="92106112"/>
+        <c:axId val="92132864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74956160"/>
+        <c:axId val="92106112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,17 +1479,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75342592"/>
+        <c:crossAx val="92132864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75342592"/>
+        <c:axId val="92132864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,24 +1509,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74956160"/>
+        <c:crossAx val="92106112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -949,7 +1550,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1028,11 +1628,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="106070016"/>
-        <c:axId val="106071936"/>
+        <c:axId val="92268032"/>
+        <c:axId val="92269952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106070016"/>
+        <c:axId val="92268032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,17 +1653,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106071936"/>
+        <c:crossAx val="92269952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106071936"/>
+        <c:axId val="92269952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,24 +1683,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106070016"/>
+        <c:crossAx val="92268032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1127,7 +1724,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1188,11 +1784,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="106294656"/>
-        <c:axId val="106341888"/>
+        <c:axId val="92282240"/>
+        <c:axId val="92292608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106294656"/>
+        <c:axId val="92282240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,17 +1809,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106341888"/>
+        <c:crossAx val="92292608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106341888"/>
+        <c:axId val="92292608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1244,24 +1839,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106294656"/>
+        <c:crossAx val="92282240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1287,7 +1880,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1318,11 +1910,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="107817600"/>
-        <c:axId val="107375232"/>
+        <c:axId val="92317184"/>
+        <c:axId val="92319104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107817600"/>
+        <c:axId val="92317184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,17 +1935,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107375232"/>
+        <c:crossAx val="92319104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107375232"/>
+        <c:axId val="92319104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,24 +1965,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107817600"/>
+        <c:crossAx val="92317184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1417,7 +2006,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1448,11 +2036,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="107741184"/>
-        <c:axId val="114547328"/>
+        <c:axId val="100801920"/>
+        <c:axId val="100816384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107741184"/>
+        <c:axId val="100801920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,17 +2061,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114547328"/>
+        <c:crossAx val="100816384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114547328"/>
+        <c:axId val="100816384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1504,24 +2091,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107741184"/>
+        <c:crossAx val="100801920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1547,7 +2132,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1561,9 +2145,9 @@
             <c:v>Freqüência</c:v>
           </c:tx>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>#REF!</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1578,11 +2162,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="106477824"/>
-        <c:axId val="106521728"/>
+        <c:axId val="100828288"/>
+        <c:axId val="100830208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106477824"/>
+        <c:axId val="100828288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,17 +2187,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106521728"/>
+        <c:crossAx val="100830208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106521728"/>
+        <c:axId val="100830208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1634,24 +2217,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106477824"/>
+        <c:crossAx val="100828288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4286,7 +4867,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -8058,8 +8639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView topLeftCell="S39" workbookViewId="0">
-      <selection activeCell="AE51" sqref="AE51"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -8069,64 +8650,64 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="16.5" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -8551,19 +9132,19 @@
     </row>
     <row r="28" spans="1:24" ht="16.5" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M28" s="5">
         <v>0</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X28" s="5">
         <v>0</v>
@@ -8571,64 +9152,64 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="16.5" thickBot="1">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W35" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X35" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -8725,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X40" s="5">
         <v>1</v>
@@ -8733,7 +9314,7 @@
     </row>
     <row r="41" spans="1:24" ht="16.5" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
@@ -8755,7 +9336,7 @@
     </row>
     <row r="43" spans="1:24" ht="16.5" thickBot="1">
       <c r="L43" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M43" s="5">
         <v>1</v>
@@ -8763,64 +9344,64 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="16.5" thickBot="1">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W54" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X54" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -8925,7 +9506,7 @@
     </row>
     <row r="60" spans="1:24" ht="16.5" thickBot="1">
       <c r="A60" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B60" s="5">
         <v>0</v>
@@ -8987,7 +9568,7 @@
     </row>
     <row r="64" spans="1:24" ht="16.5" thickBot="1">
       <c r="L64" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M64" s="5">
         <v>0</v>
@@ -9009,7 +9590,7 @@
     </row>
     <row r="66" spans="23:24" ht="16.5" thickBot="1">
       <c r="W66" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X66" s="5">
         <v>0</v>
@@ -9028,9 +9609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -9042,19 +9621,19 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1">
         <v>49</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P1">
         <v>24</v>
@@ -9071,13 +9650,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>5</v>
@@ -9089,13 +9668,13 @@
         <v>7</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>5</v>
@@ -9107,13 +9686,13 @@
         <v>7</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -10659,7 +11238,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35">
         <v>175</v>
@@ -11143,43 +11722,44 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="S6" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="10" max="10" width="11.75" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="11" max="11" width="9.75" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
     <col min="17" max="17" width="11.375" customWidth="1"/>
     <col min="18" max="18" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>37</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1">
+        <v>44</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1">
-        <v>44</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1">
+      <c r="T1">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -11190,52 +11770,70 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="V3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>0</v>
       </c>
@@ -11245,53 +11843,71 @@
       <c r="C4">
         <v>84.65</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="12">
+        <v>45.31</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1.6E-2</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4">
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>64.14</v>
       </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" s="36">
+        <v>48.01</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
         <v>3</v>
       </c>
-      <c r="M4">
+      <c r="Q4">
         <v>1.6E-2</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4">
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4">
         <v>33.79</v>
       </c>
-      <c r="R4">
+      <c r="V4" s="62">
+        <v>33.79</v>
+      </c>
+      <c r="W4">
         <v>5</v>
       </c>
-      <c r="S4" t="s">
+      <c r="X4">
+        <v>5</v>
+      </c>
+      <c r="Y4" t="s">
         <v>3</v>
       </c>
-      <c r="T4">
+      <c r="Z4">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:26" ht="31.5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -11301,53 +11917,71 @@
       <c r="C5">
         <v>69.92</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="13">
+        <v>69.92</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5">
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>60.17</v>
       </c>
-      <c r="K5">
+      <c r="M5" s="37">
+        <v>59.61</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
+      <c r="P5" t="s">
         <v>3</v>
       </c>
-      <c r="M5">
+      <c r="Q5">
         <v>3.1E-2</v>
       </c>
-      <c r="O5">
+      <c r="S5">
         <v>5</v>
       </c>
-      <c r="P5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5">
+      <c r="T5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5">
         <v>12.37</v>
       </c>
-      <c r="R5">
+      <c r="V5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5">
         <v>5</v>
       </c>
-      <c r="S5" t="s">
+      <c r="X5">
+        <v>5</v>
+      </c>
+      <c r="Y5" t="s">
         <v>3</v>
       </c>
-      <c r="T5">
+      <c r="Z5">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:26" ht="31.5">
       <c r="A6">
         <v>3</v>
       </c>
@@ -11357,53 +11991,71 @@
       <c r="C6">
         <v>72.58</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="14">
+        <v>37.69</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>7</v>
       </c>
-      <c r="I6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>50.87</v>
       </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" s="37">
+        <v>44.73</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
         <v>3</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
         <v>1.6E-2</v>
       </c>
-      <c r="O6">
+      <c r="S6">
         <v>10</v>
       </c>
-      <c r="P6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q6">
+      <c r="T6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6">
         <v>8.3800000000000008</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="V6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6">
         <v>4</v>
       </c>
-      <c r="T6">
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z6">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>8</v>
       </c>
@@ -11413,53 +12065,71 @@
       <c r="C7">
         <v>71.67</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>9</v>
       </c>
-      <c r="I7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7">
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>38.020000000000003</v>
       </c>
-      <c r="K7">
+      <c r="M7" s="38">
+        <v>30.27</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
         <v>3</v>
       </c>
-      <c r="L7" t="s">
+      <c r="P7" t="s">
         <v>3</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="O7">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>15</v>
       </c>
-      <c r="P7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7">
+      <c r="T7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7">
         <v>11.83</v>
       </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="V7" s="63">
+        <v>7.42</v>
+      </c>
+      <c r="W7">
         <v>3</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>12</v>
       </c>
@@ -11469,53 +12139,71 @@
       <c r="C8">
         <v>86.7</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="15">
+        <v>45.12</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>11</v>
       </c>
-      <c r="I8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8">
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>43.37</v>
       </c>
-      <c r="K8">
+      <c r="M8" s="39">
+        <v>23.31</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
         <v>3</v>
       </c>
-      <c r="L8" t="s">
+      <c r="P8" t="s">
         <v>3</v>
       </c>
-      <c r="M8">
+      <c r="Q8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O8">
+      <c r="S8">
         <v>20</v>
       </c>
-      <c r="P8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q8">
+      <c r="T8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8">
         <v>3.53</v>
       </c>
-      <c r="R8">
+      <c r="V8" s="64">
+        <v>3.53</v>
+      </c>
+      <c r="W8">
         <v>6</v>
       </c>
-      <c r="S8" t="s">
+      <c r="X8">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="s">
         <v>3</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>13</v>
       </c>
@@ -11525,53 +12213,71 @@
       <c r="C9">
         <v>85.49</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="15">
+        <v>20.21</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>14</v>
       </c>
-      <c r="I9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9">
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>33.81</v>
       </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="M9" s="40">
+        <v>31.05</v>
+      </c>
+      <c r="N9">
         <v>3</v>
       </c>
-      <c r="M9">
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O9">
+      <c r="S9">
         <v>28</v>
       </c>
-      <c r="P9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9">
+      <c r="T9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9">
         <v>28.2</v>
       </c>
-      <c r="R9">
+      <c r="V9" s="65">
+        <v>28.2</v>
+      </c>
+      <c r="W9">
         <v>4</v>
       </c>
-      <c r="S9" t="s">
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Y9" t="s">
         <v>3</v>
       </c>
-      <c r="T9">
+      <c r="Z9">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>17</v>
       </c>
@@ -11581,53 +12287,71 @@
       <c r="C10">
         <v>64.91</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="16">
+        <v>48.83</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>3.1E-2</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>16</v>
       </c>
-      <c r="I10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10">
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>20.309999999999999</v>
       </c>
-      <c r="K10">
+      <c r="M10" s="41">
+        <v>5.82</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
         <v>3</v>
       </c>
-      <c r="L10" t="s">
+      <c r="P10" t="s">
         <v>3</v>
       </c>
-      <c r="M10">
+      <c r="Q10">
         <v>3.1E-2</v>
       </c>
-      <c r="O10">
+      <c r="S10">
         <v>31</v>
       </c>
-      <c r="P10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q10">
+      <c r="T10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10">
         <v>18.11</v>
       </c>
-      <c r="R10">
+      <c r="V10" s="66">
+        <v>18.11</v>
+      </c>
+      <c r="W10">
         <v>5</v>
       </c>
-      <c r="S10" t="s">
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Y10" t="s">
         <v>3</v>
       </c>
-      <c r="T10">
+      <c r="Z10">
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>18</v>
       </c>
@@ -11637,53 +12361,71 @@
       <c r="C11">
         <v>71.48</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="16">
+        <v>65.150000000000006</v>
+      </c>
+      <c r="E11">
         <v>3</v>
       </c>
       <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11">
         <v>1.6E-2</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>19</v>
       </c>
-      <c r="I11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11">
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>70.73</v>
       </c>
-      <c r="K11">
+      <c r="M11" s="42">
+        <v>66.23</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
         <v>3</v>
       </c>
-      <c r="L11" t="s">
+      <c r="P11" t="s">
         <v>3</v>
       </c>
-      <c r="M11">
+      <c r="Q11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O11">
+      <c r="S11">
         <v>35</v>
       </c>
-      <c r="P11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q11">
+      <c r="T11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11">
         <v>14.51</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="V11" s="11">
+        <v>14.51</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="s">
         <v>4</v>
       </c>
-      <c r="T11">
+      <c r="Z11">
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>21</v>
       </c>
@@ -11693,53 +12435,71 @@
       <c r="C12">
         <v>79.55</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="17">
+        <v>2.57</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
         <v>3</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>1.6E-2</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>22</v>
       </c>
-      <c r="I12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12">
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>39.64</v>
       </c>
-      <c r="K12">
+      <c r="M12" s="43">
+        <v>32.1</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12">
         <v>4</v>
       </c>
-      <c r="L12" t="s">
+      <c r="P12" t="s">
         <v>3</v>
       </c>
-      <c r="M12">
+      <c r="Q12">
         <v>3.1E-2</v>
       </c>
-      <c r="O12">
+      <c r="S12">
         <v>39</v>
       </c>
-      <c r="P12" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q12">
+      <c r="T12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12">
         <v>37.76</v>
       </c>
-      <c r="R12">
+      <c r="V12" s="67">
+        <v>37.76</v>
+      </c>
+      <c r="W12">
         <v>6</v>
       </c>
-      <c r="S12" t="s">
+      <c r="X12">
+        <v>6</v>
+      </c>
+      <c r="Y12" t="s">
         <v>3</v>
       </c>
-      <c r="T12">
+      <c r="Z12">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>24</v>
       </c>
@@ -11749,53 +12509,71 @@
       <c r="C13">
         <v>73.53</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="18">
+        <v>73.53</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>1.6E-2</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>23</v>
       </c>
-      <c r="I13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13">
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>33.42</v>
       </c>
-      <c r="K13">
+      <c r="M13" s="43">
+        <v>29.36</v>
+      </c>
+      <c r="N13">
+        <v>6</v>
+      </c>
+      <c r="O13">
         <v>5</v>
       </c>
-      <c r="L13" t="s">
+      <c r="P13" t="s">
         <v>3</v>
       </c>
-      <c r="M13">
+      <c r="Q13">
         <v>1.6E-2</v>
       </c>
-      <c r="O13">
+      <c r="S13">
         <v>41</v>
       </c>
-      <c r="P13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q13">
+      <c r="T13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13">
         <v>41.84</v>
       </c>
-      <c r="R13">
+      <c r="V13" s="68">
+        <v>41.84</v>
+      </c>
+      <c r="W13">
         <v>4</v>
       </c>
-      <c r="S13" t="s">
+      <c r="X13">
+        <v>4</v>
+      </c>
+      <c r="Y13" t="s">
         <v>3</v>
       </c>
-      <c r="T13">
+      <c r="Z13">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>32</v>
       </c>
@@ -11805,53 +12583,71 @@
       <c r="C14">
         <v>69.88</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="19">
+        <v>69.88</v>
+      </c>
+      <c r="E14" s="9">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
         <v>4</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>25</v>
       </c>
-      <c r="I14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14">
+      <c r="K14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>45.05</v>
       </c>
-      <c r="K14">
+      <c r="M14" s="44">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="N14">
+        <v>6</v>
+      </c>
+      <c r="O14">
         <v>3</v>
       </c>
-      <c r="L14" t="s">
+      <c r="P14" t="s">
         <v>3</v>
       </c>
-      <c r="M14">
+      <c r="Q14">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O14">
+      <c r="S14">
         <v>58</v>
       </c>
-      <c r="P14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q14">
+      <c r="T14" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14">
         <v>12.07</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="V14" s="69">
+        <v>12.07</v>
+      </c>
+      <c r="W14">
         <v>4</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>33</v>
       </c>
@@ -11861,53 +12657,71 @@
       <c r="C15">
         <v>67.209999999999994</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="19">
+        <v>52.46</v>
+      </c>
+      <c r="E15" s="9">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
         <v>3</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>1.6E-2</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>26</v>
       </c>
-      <c r="I15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15">
+      <c r="K15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>27.34</v>
       </c>
-      <c r="K15">
+      <c r="M15" s="44">
+        <v>25.38</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
         <v>3</v>
       </c>
-      <c r="L15" t="s">
+      <c r="P15" t="s">
         <v>3</v>
       </c>
-      <c r="M15">
+      <c r="Q15">
         <v>3.1E-2</v>
       </c>
-      <c r="O15">
+      <c r="S15">
         <v>64</v>
       </c>
-      <c r="P15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q15">
+      <c r="T15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U15">
         <v>5.77</v>
       </c>
-      <c r="R15">
+      <c r="V15" s="70">
+        <v>5.77</v>
+      </c>
+      <c r="W15">
         <v>4</v>
       </c>
-      <c r="S15" t="s">
+      <c r="X15">
+        <v>4</v>
+      </c>
+      <c r="Y15" t="s">
         <v>3</v>
       </c>
-      <c r="T15">
+      <c r="Z15">
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>34</v>
       </c>
@@ -11917,53 +12731,71 @@
       <c r="C16">
         <v>94.63</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="19">
+        <v>79.14</v>
+      </c>
+      <c r="E16" s="9">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
         <v>3</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>27</v>
       </c>
-      <c r="I16" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16">
+      <c r="K16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>47.56</v>
       </c>
-      <c r="K16">
+      <c r="M16" s="44">
+        <v>4.3</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
         <v>3</v>
       </c>
-      <c r="L16" t="s">
+      <c r="P16" t="s">
         <v>3</v>
       </c>
-      <c r="M16">
+      <c r="Q16">
         <v>1.6E-2</v>
       </c>
-      <c r="O16">
+      <c r="S16">
         <v>71</v>
       </c>
-      <c r="P16" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q16">
+      <c r="T16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16">
         <v>2.67</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="V16" s="11">
+        <v>2.67</v>
+      </c>
+      <c r="W16">
+        <v>5</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="s">
         <v>4</v>
       </c>
-      <c r="T16">
+      <c r="Z16">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>37</v>
       </c>
@@ -11973,53 +12805,71 @@
       <c r="C17">
         <v>68.069999999999993</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="20">
+        <v>60.09</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
         <v>3</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>29</v>
       </c>
-      <c r="I17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17">
+      <c r="K17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17">
         <v>58.59</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="M17" s="45">
+        <v>48.24</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
         <v>3</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="O17">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>76</v>
       </c>
-      <c r="P17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17">
+      <c r="T17" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17">
         <v>40.06</v>
       </c>
-      <c r="R17">
+      <c r="V17" s="71">
+        <v>40.06</v>
+      </c>
+      <c r="W17">
         <v>6</v>
       </c>
-      <c r="S17" t="s">
+      <c r="X17">
+        <v>6</v>
+      </c>
+      <c r="Y17" t="s">
         <v>3</v>
       </c>
-      <c r="T17">
+      <c r="Z17">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>40</v>
       </c>
@@ -12029,53 +12879,71 @@
       <c r="C18">
         <v>85.84</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="21">
+        <v>70.209999999999994</v>
+      </c>
+      <c r="E18" s="7">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
         <v>3</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>1.6E-2</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>30</v>
       </c>
-      <c r="I18" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18">
+      <c r="K18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>44.22</v>
       </c>
-      <c r="K18">
+      <c r="M18" s="45">
+        <v>44.22</v>
+      </c>
+      <c r="N18">
         <v>4</v>
       </c>
-      <c r="L18" t="s">
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18" t="s">
         <v>3</v>
       </c>
-      <c r="M18">
+      <c r="Q18">
         <v>1.6E-2</v>
       </c>
-      <c r="O18">
+      <c r="S18">
         <v>84</v>
       </c>
-      <c r="P18" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q18">
+      <c r="T18" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18">
         <v>49.09</v>
       </c>
-      <c r="R18">
+      <c r="V18" s="72">
+        <v>49.09</v>
+      </c>
+      <c r="W18">
         <v>6</v>
       </c>
-      <c r="S18" t="s">
+      <c r="X18">
+        <v>6</v>
+      </c>
+      <c r="Y18" t="s">
         <v>3</v>
       </c>
-      <c r="T18">
+      <c r="Z18">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:26">
       <c r="A19">
         <v>43</v>
       </c>
@@ -12085,53 +12953,71 @@
       <c r="C19">
         <v>90.95</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="22">
+        <v>79.64</v>
+      </c>
+      <c r="E19" s="7">
         <v>3</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>36</v>
       </c>
-      <c r="I19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19">
+      <c r="K19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>62.67</v>
       </c>
-      <c r="K19">
+      <c r="M19" s="46">
+        <v>50.23</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19">
         <v>4</v>
       </c>
-      <c r="L19" t="s">
+      <c r="P19" t="s">
         <v>3</v>
       </c>
-      <c r="M19">
+      <c r="Q19">
         <v>1.6E-2</v>
       </c>
-      <c r="O19">
+      <c r="S19">
         <v>89</v>
       </c>
-      <c r="P19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q19">
+      <c r="T19" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19">
         <v>52.74</v>
       </c>
-      <c r="R19">
+      <c r="V19" s="73">
+        <v>52.74</v>
+      </c>
+      <c r="W19">
         <v>3</v>
       </c>
-      <c r="S19" t="s">
+      <c r="X19">
         <v>3</v>
       </c>
-      <c r="T19">
+      <c r="Y19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z19">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:26">
       <c r="A20">
         <v>46</v>
       </c>
@@ -12141,53 +13027,71 @@
       <c r="C20">
         <v>84.59</v>
       </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" s="23">
+        <v>48.35</v>
+      </c>
+      <c r="E20" s="7">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
         <v>3</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>38</v>
       </c>
-      <c r="I20" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20">
+      <c r="K20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>44.33</v>
       </c>
-      <c r="K20">
+      <c r="M20" s="47">
+        <v>42.62</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
         <v>3</v>
       </c>
-      <c r="L20" t="s">
+      <c r="P20" t="s">
         <v>3</v>
       </c>
-      <c r="M20">
+      <c r="Q20">
         <v>1.6E-2</v>
       </c>
-      <c r="O20">
+      <c r="S20">
         <v>91</v>
       </c>
-      <c r="P20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q20">
+      <c r="T20" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20">
         <v>0.2</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="V20" s="74">
+        <v>0.2</v>
+      </c>
+      <c r="W20">
         <v>4</v>
       </c>
-      <c r="T20">
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:26">
       <c r="A21">
         <v>48</v>
       </c>
@@ -12197,53 +13101,71 @@
       <c r="C21">
         <v>75.53</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" s="24">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E21" s="7">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>3</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>42</v>
       </c>
-      <c r="I21" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21">
+      <c r="K21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21">
         <v>27.88</v>
       </c>
-      <c r="K21">
+      <c r="M21" s="48">
+        <v>25.93</v>
+      </c>
+      <c r="N21">
+        <v>6</v>
+      </c>
+      <c r="O21">
         <v>5</v>
       </c>
-      <c r="L21" t="s">
+      <c r="P21" t="s">
         <v>3</v>
       </c>
-      <c r="M21">
+      <c r="Q21">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O21">
+      <c r="S21">
         <v>93</v>
       </c>
-      <c r="P21" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q21">
+      <c r="T21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21">
         <v>43.45</v>
       </c>
-      <c r="R21">
+      <c r="V21" s="75">
+        <v>43.45</v>
+      </c>
+      <c r="W21">
         <v>6</v>
       </c>
-      <c r="S21" t="s">
+      <c r="X21">
+        <v>6</v>
+      </c>
+      <c r="Y21" t="s">
         <v>3</v>
       </c>
-      <c r="T21">
+      <c r="Z21">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:26">
       <c r="A22">
         <v>61</v>
       </c>
@@ -12253,53 +13175,71 @@
       <c r="C22">
         <v>72.45</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="25">
+        <v>48.34</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>3</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>44</v>
       </c>
-      <c r="I22" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22">
+      <c r="K22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22">
         <v>60.85</v>
       </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="M22" s="49">
+        <v>60.85</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22" t="s">
         <v>3</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="O22">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>95</v>
       </c>
-      <c r="P22" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q22">
+      <c r="T22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <v>17.329999999999998</v>
       </c>
-      <c r="R22">
+      <c r="V22" s="76">
+        <v>14.75</v>
+      </c>
+      <c r="W22">
+        <v>6</v>
+      </c>
+      <c r="X22">
         <v>5</v>
       </c>
-      <c r="S22" t="s">
+      <c r="Y22" t="s">
         <v>3</v>
       </c>
-      <c r="T22">
+      <c r="Z22">
         <v>0.109</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:26">
       <c r="A23">
         <v>66</v>
       </c>
@@ -12309,35 +13249,47 @@
       <c r="C23">
         <v>75.430000000000007</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="26">
+        <v>62.03</v>
+      </c>
+      <c r="E23" s="7">
+        <v>5</v>
+      </c>
+      <c r="F23">
         <v>3</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>3</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>3.1E-2</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>45</v>
       </c>
-      <c r="I23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23">
+      <c r="K23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23">
         <v>66.36</v>
       </c>
-      <c r="K23">
+      <c r="M23" s="49">
+        <v>62.75</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23">
         <v>3</v>
       </c>
-      <c r="L23" t="s">
+      <c r="P23" t="s">
         <v>3</v>
       </c>
-      <c r="M23">
+      <c r="Q23">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:26">
       <c r="A24">
         <v>67</v>
       </c>
@@ -12347,35 +13299,47 @@
       <c r="C24">
         <v>82.44</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="26">
+        <v>71.37</v>
+      </c>
+      <c r="E24" s="7">
+        <v>6</v>
+      </c>
+      <c r="F24">
         <v>3</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>3</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>1.6E-2</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>47</v>
       </c>
-      <c r="I24" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24">
+      <c r="K24" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24">
         <v>61.62</v>
       </c>
-      <c r="K24">
+      <c r="M24" s="50">
+        <v>50.95</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
         <v>3</v>
       </c>
-      <c r="L24" t="s">
+      <c r="P24" t="s">
         <v>3</v>
       </c>
-      <c r="M24">
+      <c r="Q24">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:26">
       <c r="A25">
         <v>69</v>
       </c>
@@ -12385,35 +13349,47 @@
       <c r="C25">
         <v>86.92</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
         <v>3</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>49</v>
       </c>
-      <c r="I25" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25">
+      <c r="K25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25">
         <v>23.6</v>
       </c>
-      <c r="K25">
+      <c r="M25" s="51">
+        <v>21.22</v>
+      </c>
+      <c r="N25">
+        <v>6</v>
+      </c>
+      <c r="O25">
         <v>5</v>
       </c>
-      <c r="L25" t="s">
+      <c r="P25" t="s">
         <v>3</v>
       </c>
-      <c r="M25">
+      <c r="Q25">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:26">
       <c r="A26">
         <v>72</v>
       </c>
@@ -12423,35 +13399,47 @@
       <c r="C26">
         <v>74.41</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" s="27">
+        <v>65.89</v>
+      </c>
+      <c r="E26" s="7">
         <v>3</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>50</v>
       </c>
-      <c r="I26" t="s">
-        <v>1</v>
-      </c>
-      <c r="J26">
+      <c r="K26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26">
         <v>65.319999999999993</v>
       </c>
-      <c r="K26">
+      <c r="M26" s="51">
+        <v>43.13</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26">
         <v>5</v>
       </c>
-      <c r="L26" t="s">
+      <c r="P26" t="s">
         <v>3</v>
       </c>
-      <c r="M26">
+      <c r="Q26">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:26">
       <c r="A27">
         <v>74</v>
       </c>
@@ -12461,35 +13449,47 @@
       <c r="C27">
         <v>73.7</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="28">
+        <v>67.510000000000005</v>
+      </c>
+      <c r="E27" s="7">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
         <v>3</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>51</v>
       </c>
-      <c r="I27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27">
+      <c r="K27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27">
         <v>26.32</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="M27" s="51">
+        <v>12.5</v>
+      </c>
+      <c r="N27">
         <v>3</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28">
         <v>75</v>
       </c>
@@ -12499,35 +13499,47 @@
       <c r="C28">
         <v>63.34</v>
       </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" s="28">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="E28" s="7">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
         <v>3</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>1.6E-2</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>52</v>
       </c>
-      <c r="I28" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28">
+      <c r="K28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28">
         <v>31.44</v>
       </c>
-      <c r="K28">
+      <c r="M28" s="51">
+        <v>31.44</v>
+      </c>
+      <c r="N28">
         <v>3</v>
       </c>
-      <c r="L28" t="s">
+      <c r="O28">
         <v>3</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="P28" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29">
         <v>77</v>
       </c>
@@ -12537,35 +13549,47 @@
       <c r="C29">
         <v>76.650000000000006</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" s="29">
+        <v>49.17</v>
+      </c>
+      <c r="E29" s="8">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
         <v>3</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>1.6E-2</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>53</v>
       </c>
-      <c r="I29" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29">
+      <c r="K29" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29">
         <v>70.58</v>
       </c>
-      <c r="K29">
+      <c r="M29" s="51">
+        <v>70.58</v>
+      </c>
+      <c r="N29">
         <v>3</v>
       </c>
-      <c r="L29" t="s">
+      <c r="O29">
         <v>3</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="P29" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30">
         <v>78</v>
       </c>
@@ -12575,35 +13599,47 @@
       <c r="C30">
         <v>74.11</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" s="29">
+        <v>54.69</v>
+      </c>
+      <c r="E30" s="8">
         <v>3</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>3</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>54</v>
       </c>
-      <c r="I30" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30">
+      <c r="K30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30">
         <v>46.61</v>
       </c>
-      <c r="K30">
+      <c r="M30" s="51">
+        <v>46.61</v>
+      </c>
+      <c r="N30">
         <v>4</v>
       </c>
-      <c r="L30" t="s">
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30" t="s">
         <v>3</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31">
         <v>79</v>
       </c>
@@ -12613,35 +13649,47 @@
       <c r="C31">
         <v>69.709999999999994</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="29">
+        <v>59.61</v>
+      </c>
+      <c r="E31" s="8">
+        <v>6</v>
+      </c>
+      <c r="F31">
         <v>3</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>3</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>1.6E-2</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>55</v>
       </c>
-      <c r="I31" t="s">
-        <v>1</v>
-      </c>
-      <c r="J31">
+      <c r="K31" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31">
         <v>72.2</v>
       </c>
-      <c r="K31">
+      <c r="M31" s="51">
+        <v>62.09</v>
+      </c>
+      <c r="N31">
+        <v>6</v>
+      </c>
+      <c r="O31">
         <v>4</v>
       </c>
-      <c r="L31" t="s">
+      <c r="P31" t="s">
         <v>3</v>
       </c>
-      <c r="M31">
+      <c r="Q31">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:26">
       <c r="A32">
         <v>80</v>
       </c>
@@ -12651,35 +13699,47 @@
       <c r="C32">
         <v>87.44</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="29">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
         <v>3</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>56</v>
       </c>
-      <c r="I32" t="s">
-        <v>1</v>
-      </c>
-      <c r="J32">
+      <c r="K32" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32">
         <v>53.71</v>
       </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="M32" s="51">
+        <v>48.57</v>
+      </c>
+      <c r="N32">
         <v>3</v>
       </c>
-      <c r="M32">
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>81</v>
       </c>
@@ -12689,35 +13749,47 @@
       <c r="C33">
         <v>83.1</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D33" s="29">
+        <v>74.12</v>
+      </c>
+      <c r="E33" s="8">
         <v>3</v>
       </c>
       <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33">
         <v>1.6E-2</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>57</v>
       </c>
-      <c r="I33" t="s">
-        <v>1</v>
-      </c>
-      <c r="J33">
+      <c r="K33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33">
         <v>73.16</v>
       </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="M33" s="51">
+        <v>73.16</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33" t="s">
         <v>3</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>82</v>
       </c>
@@ -12727,35 +13799,47 @@
       <c r="C34">
         <v>87.2</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D34" s="29">
+        <v>34.380000000000003</v>
+      </c>
+      <c r="E34" s="8">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
         <v>3</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>59</v>
       </c>
-      <c r="I34" t="s">
-        <v>1</v>
-      </c>
-      <c r="J34">
+      <c r="K34" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34">
         <v>58.38</v>
       </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="M34" s="52">
+        <v>38.79</v>
+      </c>
+      <c r="N34">
+        <v>5</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34" t="s">
         <v>3</v>
       </c>
-      <c r="M34">
+      <c r="Q34">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>85</v>
       </c>
@@ -12765,35 +13849,47 @@
       <c r="C35">
         <v>97.52</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D35" s="30">
+        <v>92.72</v>
+      </c>
+      <c r="E35" s="7">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
         <v>3</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>60</v>
       </c>
-      <c r="I35" t="s">
-        <v>1</v>
-      </c>
-      <c r="J35">
+      <c r="K35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35">
         <v>23.26</v>
       </c>
-      <c r="K35">
+      <c r="M35" s="52">
+        <v>11.45</v>
+      </c>
+      <c r="N35">
+        <v>6</v>
+      </c>
+      <c r="O35">
         <v>4</v>
       </c>
-      <c r="L35" t="s">
+      <c r="P35" t="s">
         <v>3</v>
       </c>
-      <c r="M35">
+      <c r="Q35">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>90</v>
       </c>
@@ -12803,35 +13899,47 @@
       <c r="C36">
         <v>82.51</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" s="31">
+        <v>54.64</v>
+      </c>
+      <c r="E36" s="7">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
         <v>3</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <v>62</v>
       </c>
-      <c r="I36" t="s">
-        <v>1</v>
-      </c>
-      <c r="J36">
+      <c r="K36" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36">
         <v>49.65</v>
       </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="M36" s="53">
+        <v>43.36</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
         <v>3</v>
       </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>92</v>
       </c>
@@ -12841,35 +13949,47 @@
       <c r="C37">
         <v>80.34</v>
       </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37" s="32">
+        <v>65.59</v>
+      </c>
+      <c r="E37" s="7">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
         <v>3</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>63</v>
       </c>
-      <c r="I37" t="s">
-        <v>1</v>
-      </c>
-      <c r="J37">
+      <c r="K37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37">
         <v>49.26</v>
       </c>
-      <c r="K37">
+      <c r="M37" s="53">
+        <v>35.42</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
+      <c r="O37">
         <v>3</v>
       </c>
-      <c r="L37" t="s">
+      <c r="P37" t="s">
         <v>3</v>
       </c>
-      <c r="M37">
+      <c r="Q37">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>94</v>
       </c>
@@ -12879,35 +13999,47 @@
       <c r="C38">
         <v>94.66</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" s="33">
+        <v>70.31</v>
+      </c>
+      <c r="E38" s="7">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
         <v>3</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>65</v>
       </c>
-      <c r="I38" t="s">
-        <v>1</v>
-      </c>
-      <c r="J38">
+      <c r="K38" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38">
         <v>65.8</v>
       </c>
-      <c r="K38">
-        <v>2</v>
-      </c>
-      <c r="L38" t="s">
+      <c r="M38" s="54">
+        <v>58.2</v>
+      </c>
+      <c r="N38">
         <v>3</v>
       </c>
-      <c r="M38">
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>97</v>
       </c>
@@ -12917,35 +14049,47 @@
       <c r="C39">
         <v>67.239999999999995</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="34">
+        <v>26.67</v>
+      </c>
+      <c r="E39" s="7">
+        <v>6</v>
+      </c>
+      <c r="F39">
         <v>3</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>3</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>68</v>
       </c>
-      <c r="I39" t="s">
-        <v>1</v>
-      </c>
-      <c r="J39">
+      <c r="K39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39">
         <v>33.18</v>
       </c>
-      <c r="K39">
-        <v>2</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="M39" s="55">
+        <v>16.47</v>
+      </c>
+      <c r="N39">
+        <v>6</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39" t="s">
         <v>3</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>99</v>
       </c>
@@ -12955,171 +14099,225 @@
       <c r="C40">
         <v>85.62</v>
       </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" s="35">
+        <v>41.28</v>
+      </c>
+      <c r="E40" s="7">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
         <v>3</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>70</v>
       </c>
-      <c r="I40" t="s">
-        <v>1</v>
-      </c>
-      <c r="J40">
+      <c r="K40" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40">
         <v>29.25</v>
       </c>
-      <c r="K40">
+      <c r="M40" s="56">
+        <v>26.03</v>
+      </c>
+      <c r="N40">
+        <v>5</v>
+      </c>
+      <c r="O40">
         <v>3</v>
       </c>
-      <c r="L40" t="s">
+      <c r="P40" t="s">
         <v>3</v>
       </c>
-      <c r="M40">
+      <c r="Q40">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
-      <c r="H41">
+    <row r="41" spans="1:17">
+      <c r="J41">
         <v>73</v>
       </c>
-      <c r="I41" t="s">
-        <v>1</v>
-      </c>
-      <c r="J41">
+      <c r="K41" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41">
         <v>58.73</v>
       </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="M41" s="57">
+        <v>12.3</v>
+      </c>
+      <c r="N41">
+        <v>5</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
         <v>3</v>
       </c>
-      <c r="M41">
+      <c r="Q41">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
-      <c r="H42">
+    <row r="42" spans="1:17">
+      <c r="J42">
         <v>83</v>
       </c>
-      <c r="I42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J42">
+      <c r="K42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L42">
         <v>32.44</v>
       </c>
-      <c r="K42">
+      <c r="M42" s="58">
+        <v>26</v>
+      </c>
+      <c r="N42">
+        <v>5</v>
+      </c>
+      <c r="O42">
         <v>3</v>
       </c>
-      <c r="L42" t="s">
+      <c r="P42" t="s">
         <v>3</v>
       </c>
-      <c r="M42">
+      <c r="Q42">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
-      <c r="H43">
+    <row r="43" spans="1:17">
+      <c r="J43">
         <v>86</v>
       </c>
-      <c r="I43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J43">
+      <c r="K43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L43">
         <v>53.7</v>
       </c>
-      <c r="K43">
-        <v>2</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="M43" s="59">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43" t="s">
         <v>3</v>
       </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="H44">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44">
         <v>87</v>
       </c>
-      <c r="I44" t="s">
-        <v>1</v>
-      </c>
-      <c r="J44">
+      <c r="K44" t="s">
+        <v>1</v>
+      </c>
+      <c r="L44">
         <v>57.1</v>
       </c>
-      <c r="K44">
-        <v>2</v>
-      </c>
-      <c r="L44" t="s">
+      <c r="M44" s="59">
+        <v>37.43</v>
+      </c>
+      <c r="N44">
+        <v>6</v>
+      </c>
+      <c r="O44">
+        <v>2</v>
+      </c>
+      <c r="P44" t="s">
         <v>3</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="H45">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45">
         <v>88</v>
       </c>
-      <c r="I45" t="s">
-        <v>1</v>
-      </c>
-      <c r="J45">
+      <c r="K45" t="s">
+        <v>1</v>
+      </c>
+      <c r="L45">
         <v>32.5</v>
       </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45" t="s">
+      <c r="M45" s="59">
+        <v>15.63</v>
+      </c>
+      <c r="N45">
         <v>3</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="H46">
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46">
         <v>96</v>
       </c>
-      <c r="I46" t="s">
-        <v>1</v>
-      </c>
-      <c r="J46">
+      <c r="K46" t="s">
+        <v>1</v>
+      </c>
+      <c r="L46">
         <v>36.32</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46" t="s">
+      <c r="M46" s="60">
+        <v>36.32</v>
+      </c>
+      <c r="N46">
         <v>4</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="H47">
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47">
         <v>98</v>
       </c>
-      <c r="I47" t="s">
-        <v>1</v>
-      </c>
-      <c r="J47">
+      <c r="K47" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47">
         <v>74.45</v>
       </c>
-      <c r="K47">
+      <c r="M47" s="61">
+        <v>65.16</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
         <v>3</v>
       </c>
-      <c r="L47" t="s">
+      <c r="P47" t="s">
         <v>3</v>
       </c>
-      <c r="M47">
+      <c r="Q47">
         <v>1.6E-2</v>
       </c>
     </row>
@@ -13133,7 +14331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>

--- a/Codes/ModeloAlocacao/dados_experimentos.xlsx
+++ b/Codes/ModeloAlocacao/dados_experimentos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" tabRatio="500" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" tabRatio="500" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="macmini_leves" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="41">
   <si>
     <t>f</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Número de problemas</t>
+  </si>
+  <si>
+    <t>ff</t>
   </si>
 </sst>
 </file>
@@ -1304,11 +1307,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="82759040"/>
-        <c:axId val="82864000"/>
+        <c:axId val="47114496"/>
+        <c:axId val="48771072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82759040"/>
+        <c:axId val="47114496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,14 +1334,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82864000"/>
+        <c:crossAx val="48771072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82864000"/>
+        <c:axId val="48771072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1365,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82759040"/>
+        <c:crossAx val="47114496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1374,7 +1377,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1400,7 +1403,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1473,25 +1475,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="84936576"/>
-        <c:axId val="84938112"/>
+        <c:axId val="100480896"/>
+        <c:axId val="100491264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84936576"/>
+        <c:axId val="100480896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84938112"/>
+        <c:crossAx val="100491264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84938112"/>
+        <c:axId val="100491264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,7 +1502,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84936576"/>
+        <c:crossAx val="100480896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1509,7 +1511,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1535,7 +1537,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1644,25 +1645,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="94719360"/>
-        <c:axId val="94729344"/>
+        <c:axId val="110310144"/>
+        <c:axId val="110311680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94719360"/>
+        <c:axId val="110310144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94729344"/>
+        <c:crossAx val="110311680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94729344"/>
+        <c:axId val="110311680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,7 +1672,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94719360"/>
+        <c:crossAx val="110310144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1680,7 +1681,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1706,7 +1707,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1815,25 +1815,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="94831744"/>
-        <c:axId val="94833280"/>
+        <c:axId val="67897600"/>
+        <c:axId val="67919872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94831744"/>
+        <c:axId val="67897600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94833280"/>
+        <c:crossAx val="67919872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94833280"/>
+        <c:axId val="67919872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,7 +1842,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94831744"/>
+        <c:crossAx val="67897600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1851,7 +1851,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1935,26 +1935,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="45809024"/>
-        <c:axId val="47105152"/>
+        <c:axId val="68145536"/>
+        <c:axId val="68147072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45809024"/>
+        <c:axId val="68145536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="47105152"/>
+        <c:crossAx val="68147072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47105152"/>
+        <c:axId val="68147072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1966,7 +1965,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45809024"/>
+        <c:crossAx val="68145536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1981,7 +1980,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2007,7 +2006,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2080,11 +2078,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="67850240"/>
-        <c:axId val="67851776"/>
+        <c:axId val="69012480"/>
+        <c:axId val="71963776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67850240"/>
+        <c:axId val="69012480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,17 +2103,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67851776"/>
+        <c:crossAx val="71963776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67851776"/>
+        <c:axId val="71963776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,24 +2133,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67850240"/>
+        <c:crossAx val="69012480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2163,9 +2158,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="pt-BR"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2237,38 +2230,35 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="68149632"/>
-        <c:axId val="68151552"/>
+        <c:axId val="81196928"/>
+        <c:axId val="81198464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68149632"/>
+        <c:axId val="81196928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68151552"/>
+        <c:crossAx val="81198464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68151552"/>
+        <c:axId val="81198464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:layout/>
-        </c:title>
+        <c:title/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68149632"/>
+        <c:crossAx val="81196928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2283,7 +2273,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2518,25 +2508,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95080832"/>
-        <c:axId val="95082368"/>
+        <c:axId val="82655872"/>
+        <c:axId val="82686336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95080832"/>
+        <c:axId val="82655872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95082368"/>
+        <c:crossAx val="82686336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95082368"/>
+        <c:axId val="82686336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2567,7 +2557,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95080832"/>
+        <c:crossAx val="82655872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2579,7 +2569,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2814,25 +2804,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84904576"/>
-        <c:axId val="84910464"/>
+        <c:axId val="82711680"/>
+        <c:axId val="82713216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84904576"/>
+        <c:axId val="82711680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84910464"/>
+        <c:crossAx val="82713216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84910464"/>
+        <c:axId val="82713216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2863,7 +2853,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84904576"/>
+        <c:crossAx val="82711680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2875,7 +2865,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3110,25 +3100,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84931712"/>
-        <c:axId val="84933248"/>
+        <c:axId val="82730368"/>
+        <c:axId val="82732160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84931712"/>
+        <c:axId val="82730368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84933248"/>
+        <c:crossAx val="82732160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84933248"/>
+        <c:axId val="82732160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3159,7 +3149,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84931712"/>
+        <c:crossAx val="82730368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3171,7 +3161,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3504,26 +3494,26 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:shape val="box"/>
-        <c:axId val="95181056"/>
-        <c:axId val="95195136"/>
+        <c:axId val="84820736"/>
+        <c:axId val="84822272"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="95181056"/>
+        <c:axId val="84820736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95195136"/>
+        <c:crossAx val="84822272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95195136"/>
+        <c:axId val="84822272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3531,7 +3521,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="95181056"/>
+        <c:crossAx val="84820736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3543,7 +3533,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3599,11 +3589,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="82888192"/>
-        <c:axId val="82890112"/>
+        <c:axId val="67804544"/>
+        <c:axId val="67853312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82888192"/>
+        <c:axId val="67804544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3626,14 +3616,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82890112"/>
+        <c:crossAx val="67853312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82890112"/>
+        <c:axId val="67853312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3657,7 +3647,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82888192"/>
+        <c:crossAx val="67804544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3669,7 +3659,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3725,11 +3715,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="82918784"/>
-        <c:axId val="82929152"/>
+        <c:axId val="68817280"/>
+        <c:axId val="68820352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82918784"/>
+        <c:axId val="68817280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3752,14 +3742,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82929152"/>
+        <c:crossAx val="68820352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82929152"/>
+        <c:axId val="68820352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3783,7 +3773,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82918784"/>
+        <c:crossAx val="68817280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3795,7 +3785,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3899,11 +3889,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="82949632"/>
-        <c:axId val="82951552"/>
+        <c:axId val="71340800"/>
+        <c:axId val="71343104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82949632"/>
+        <c:axId val="71340800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3926,14 +3916,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82951552"/>
+        <c:crossAx val="71343104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82951552"/>
+        <c:axId val="71343104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3957,7 +3947,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82949632"/>
+        <c:crossAx val="71340800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3969,7 +3959,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4055,11 +4045,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84757888"/>
-        <c:axId val="84764160"/>
+        <c:axId val="71410432"/>
+        <c:axId val="71412736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84757888"/>
+        <c:axId val="71410432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4082,14 +4072,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84764160"/>
+        <c:crossAx val="71412736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84764160"/>
+        <c:axId val="71412736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4113,7 +4103,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84757888"/>
+        <c:crossAx val="71410432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4125,7 +4115,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4181,11 +4171,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84792832"/>
-        <c:axId val="84794752"/>
+        <c:axId val="71529216"/>
+        <c:axId val="71534848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84792832"/>
+        <c:axId val="71529216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4208,14 +4198,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84794752"/>
+        <c:crossAx val="71534848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84794752"/>
+        <c:axId val="71534848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4239,7 +4229,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84792832"/>
+        <c:crossAx val="71529216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4251,7 +4241,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4307,11 +4297,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84688256"/>
-        <c:axId val="84698624"/>
+        <c:axId val="71871872"/>
+        <c:axId val="71874048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84688256"/>
+        <c:axId val="71871872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4334,14 +4324,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84698624"/>
+        <c:crossAx val="71874048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84698624"/>
+        <c:axId val="71874048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4365,7 +4355,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84688256"/>
+        <c:crossAx val="71871872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4377,7 +4367,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4433,11 +4423,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84805120"/>
-        <c:axId val="84807040"/>
+        <c:axId val="72126464"/>
+        <c:axId val="72129536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84805120"/>
+        <c:axId val="72126464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4460,14 +4450,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84807040"/>
+        <c:crossAx val="72129536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84807040"/>
+        <c:axId val="72129536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4491,7 +4481,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84805120"/>
+        <c:crossAx val="72126464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4503,7 +4493,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4559,11 +4549,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84818944"/>
-        <c:axId val="84849792"/>
+        <c:axId val="95494528"/>
+        <c:axId val="100298752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84818944"/>
+        <c:axId val="95494528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4586,14 +4576,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84849792"/>
+        <c:crossAx val="100298752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84849792"/>
+        <c:axId val="100298752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4617,7 +4607,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84818944"/>
+        <c:crossAx val="95494528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4629,7 +4619,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7780,8 +7770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -8884,6 +8874,9 @@
       <c r="K35">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -19312,7 +19305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
